--- a/examples/99_tower_gbf/15mw/20m/outputs_mono/monotow_iea15_output.xlsx
+++ b/examples/99_tower_gbf/15mw/20m/outputs_mono/monotow_iea15_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E762"/>
+  <dimension ref="A1:E763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[2.82980898]</t>
+          <t>[2.81245332]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
+          <t>[[0.075 0.075 0.075 0.075 0.075 0.075 0.075]]</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -3056,7 +3056,8 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 8. 8. 8. 8.]</t>
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -3468,7 +3469,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[8.]</t>
+          <t>[8.26217155]</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -3491,7 +3492,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[8.]</t>
+          <t>[8.26217155]</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -3716,7 +3717,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[[0.04531985 0.025      0.025      0.025      0.025     ]]</t>
+          <t>[[0.0366826 0.02      0.02      0.02      0.02     ]]</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -3739,7 +3740,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[8.26217155 8.26217155 8.26217155 6.         6.        ]</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -4627,10 +4628,10 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         41219.63874899
- 41413.55011127 41997.65358401 42979.11485504 44370.07455178
- 46187.96657769 48456.00867933 54468.8941471  62745.24639729
- 73799.67525922     0.             0.             0.
+          <t>[    0.             0.             0.         43843.88919729
+ 44049.56709282 44669.10524732 45710.07959028 47185.3315919
+ 49113.31388053 51518.62235174 57895.25797339 66672.85460755
+ 78399.75570449     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -4881,7 +4882,10 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8.]</t>
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155]</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -5022,10 +5026,10 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         41219.63874899
- 41413.55011127 41997.65358401 42979.11485504 44370.07455178
- 46187.96657769 48456.00867933 54468.8941471  62745.24639729
- 73799.67525922     0.             0.             0.
+          <t>[    0.             0.             0.         43843.88919729
+ 44049.56709282 44669.10524732 45710.07959028 47185.3315919
+ 49113.31388053 51518.62235174 57895.25797339 66672.85460755
+ 78399.75570449     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -5168,10 +5172,10 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -41219.63874899
- -41413.55011127 -41997.65358401 -42979.11485504 -44370.07455178
- -46187.96657769 -48456.00867933 -54468.8941471  -62745.24639729
- -73799.67525922      0.              0.              0.
+          <t>[     0.              0.              0.         -43843.88919729
+ -44049.56709282 -44669.10524732 -45710.07959028 -47185.3315919
+ -49113.31388053 -51518.62235174 -57895.25797339 -66672.85460755
+ -78399.75570449      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5245,26 +5249,26 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[[3.08412632e+10 1.85063822e+13 3.08412632e+10 1.85063822e+13
-  1.88533333e+10 4.77866667e+10]
- [2.77288421e+10 1.30696533e+13 2.77288421e+10 1.30696533e+13
-  1.71733333e+10 4.77866667e+10]
- [2.46164211e+10 8.82759111e+12 2.46164211e+10 8.82759111e+12
-  1.54933333e+10 4.77866667e+10]
- [2.15040000e+10 5.63086222e+12 2.15040000e+10 5.63086222e+12
-  1.38133333e+10 4.77866667e+10]
- [1.83915789e+10 3.33013333e+12 1.83915789e+10 3.33013333e+12
-  1.21333333e+10 4.77866667e+10]
- [1.52791579e+10 1.77607111e+12 1.52791579e+10 1.77607111e+12
-  1.04533333e+10 4.77866667e+10]
- [1.21667368e+10 8.19342222e+11 1.21667368e+10 8.19342222e+11
-  8.77333333e+09 4.77866667e+10]
- [9.05431579e+09 3.10613333e+11 9.05431579e+09 3.10613333e+11
-  7.09333333e+09 4.77866667e+10]
- [5.94189474e+09 1.00551111e+11 5.94189474e+09 1.00551111e+11
-  5.41333333e+09 4.77866667e+10]
- [2.82947368e+09 3.98222222e+10 2.82947368e+09 3.98222222e+10
-  3.73333333e+09 4.77866667e+10]]</t>
+          <t>[[3.09339891e+10 1.85319150e+13 3.09339891e+10 1.85319150e+13
+  1.89756801e+10 5.26404268e+10]
+ [2.78215680e+10 1.30927985e+13 2.78215680e+10 1.30927985e+13
+  1.72956801e+10 5.26404268e+10]
+ [2.47091470e+10 8.84834875e+12 2.47091470e+10 8.84834875e+12
+  1.56156801e+10 5.26404268e+10]
+ [2.15967259e+10 5.64923231e+12 2.15967259e+10 5.64923231e+12
+  1.39356801e+10 5.26404268e+10]
+ [1.84843049e+10 3.34611587e+12 1.84843049e+10 3.34611587e+12
+  1.22556801e+10 5.26404268e+10]
+ [1.53718838e+10 1.78966610e+12 1.53718838e+10 1.78966610e+12
+  1.05756801e+10 5.26404268e+10]
+ [1.22594628e+10 8.30549667e+11 1.22594628e+10 8.30549667e+11
+  8.89568006e+09 5.26404268e+10]
+ [9.14704173e+09 3.19433230e+11 9.14704173e+09 3.19433230e+11
+  7.21568006e+09 5.26404268e+10]
+ [6.03462068e+09 1.06983459e+11 6.03462068e+09 1.06983459e+11
+  5.53568006e+09 5.26404268e+10]
+ [2.92219962e+09 4.38670223e+10 2.92219962e+09 4.38670223e+10
+  3.85568006e+09 5.26404268e+10]]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -5328,9 +5332,9 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
- 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
- 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095]</t>
+          <t>[2.06409083 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083
+ 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083
+ 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083]</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -5353,9 +5357,9 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121]</t>
+          <t>[1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816]</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -5378,9 +5382,9 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121]</t>
+          <t>[1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816]</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -5403,9 +5407,9 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
- 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
- 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746]</t>
+          <t>[17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+ 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+ 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509]</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -5428,9 +5432,9 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
- 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
- 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746]</t>
+          <t>[17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+ 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+ 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509]</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -5453,9 +5457,9 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
- 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
- 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493]</t>
+          <t>[34.59179018 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018
+ 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018
+ 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018]</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -5551,8 +5555,8 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07
- 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075
+ 0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -5699,8 +5703,8 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[0.94136625 0.94136625 0.94136625 0.67019989 0.67019989 0.67019989
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[0.78443206 0.78443206 0.78443206 0.55412188 0.55412188 0.55412188
+ 0.52877421 0.47807889 0.42738356 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -5723,8 +5727,8 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.44582003 0.44582003 0.44582003 0.31478414 0.31478414 0.31478414
+ 0.30040024 0.27163248 0.24286481 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -5747,8 +5751,8 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.44582003 0.44582003 0.44582003 0.31478414 0.31478414 0.31478414
+ 0.30040024 0.27163248 0.24286481 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -5771,8 +5775,8 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[7.46502418 7.46502418 7.46502418 5.32819383 5.32819383 5.32819383
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[6.64774441 6.64774441 6.64774441 4.70545003 4.70545003 4.70545003
+ 4.08880435 3.0219331  2.1589394  1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5795,8 +5799,8 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[7.46502418 7.46502418 7.46502418 5.32819383 5.32819383 5.32819383
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[6.64774441 6.64774441 6.64774441 4.70545003 4.70545003 4.70545003
+ 4.08880435 3.0219331  2.1589394  1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5819,8 +5823,8 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[14.93004837 14.93004837 14.93004837 10.65638765 10.65638765 10.65638765
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[13.29548883 13.29548883 13.29548883  9.41090005  9.41090005  9.41090005
+  8.17760871  6.04386621  4.3178788   3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5914,8 +5918,8 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 7.50811437 6.75405718 6.         6.         6.
  6.        ]</t>
         </is>
       </c>
@@ -5939,8 +5943,8 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[0.03515992 0.03515992 0.03515992 0.025      0.025      0.025
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.0283413 0.0283413 0.0283413 0.02      0.02      0.02      0.02
+ 0.02      0.02      0.02      0.02      0.02     ]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -6045,9 +6049,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[[  3787067.18771687]
- [    22429.5465114 ]
- [-16830034.68412241]]</t>
+          <t>[[  3787067.18771482]
+ [    22429.54651136]
+ [-15444469.60660195]]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6070,8 +6074,8 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[[-4.83193657e+06]
- [ 5.56267263e+08]
+          <t>[[-4.86962970e+06]
+ [ 5.59583011e+08]
  [ 9.73654846e+06]]</t>
         </is>
       </c>
@@ -6095,7 +6099,8 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[ 800000.  800000. 1600000.       0.       0.       0.]</t>
+          <t>[ 853293.48469061  853293.48469061 1706586.96938123       0.
+       0.               0.        ]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6187,7 +6192,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>[1755649.82911878]</t>
+          <t>[1614245.19910967]</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -6210,7 +6215,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>[-3.97723593e+00 -5.38032603e-02  1.20621235e+02]</t>
+          <t>[-4.32563379e+00 -5.85163176e-02  1.25280837e+02]</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -6233,7 +6238,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>[3.05045220e+10 3.03987855e+10 2.64841923e+08 8.52611923e+02
+          <t>[2.95989082e+10 2.94931717e+10 2.63392002e+08 8.52611923e+02
  1.94199094e+07 1.70683998e+05]</t>
         </is>
       </c>
@@ -6342,16 +6347,16 @@
           <t>[[     0.        ]
  [     0.        ]
  [     0.        ]
- [-41219.63874899]
- [-41413.55011127]
- [-41997.65358401]
- [-42979.11485504]
- [-44370.07455178]
- [-46187.96657769]
- [-48456.00867933]
- [-54468.8941471 ]
- [-62745.24639729]
- [-73799.67525922]
+ [-43843.88919729]
+ [-44049.56709282]
+ [-44669.10524732]
+ [-45710.07959028]
+ [-47185.3315919 ]
+ [-49113.31388053]
+ [-51518.62235174]
+ [-57895.25797339]
+ [-66672.85460755]
+ [-78399.75570449]
  [     0.        ]
  [     0.        ]
  [     0.        ]
@@ -6450,15 +6455,15 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[[-186.11554727]
- [-219.76188204]
- [-242.71624674]
- [-260.54450967]
- [-280.94779448]
- [-297.63929912]
- [-311.85803003]
- [-289.98410118]
- [-265.41229165]
+          <t>[[-193.89213296]
+ [-228.37776098]
+ [-251.93735203]
+ [-270.25664581]
+ [-291.24015985]
+ [-308.37640177]
+ [-322.96500102]
+ [-297.82001069]
+ [-269.58744372]
  [-237.66700775]
  [-241.01750595]
  [-244.23967215]
@@ -6584,24 +6589,24 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[[-28533871.06663958]
- [-26392966.90287191]
- [-23946006.89960159]
- [-23639956.28048051]
- [-23333263.79847802]
- [-23025279.72743206]
- [-22715338.40836722]
- [-22402749.78680149]
- [-22086790.27329277]
- [-21441207.69959668]
- [-20772047.88952275]
- [-20070992.2908473 ]
- [-19473466.35317572]
- [-18997709.87233843]
- [-18521953.39150119]
- [-18284075.15108231]
- [-18046196.91066385]
- [-17808318.67024546]]</t>
+          <t>[[-28224747.36925492]
+ [-25856532.38664647]
+ [-23162776.50778482]
+ [-22827129.41193685]
+ [-22490801.51062992]
+ [-22153103.68395239]
+ [-21813329.97683595]
+ [-21470748.60140092]
+ [-21124592.2560956 ]
+ [-20417789.36881909]
+ [-19685981.99518494]
+ [-18920342.19703955]
+ [-18264712.60238294]
+ [-17738442.60624759]
+ [-17212172.61011219]
+ [-16949037.61204481]
+ [-16685902.61397727]
+ [-16422767.61590987]]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6624,24 +6629,24 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>[[  -915689.53633235]
- [ -7965502.19059035]
- [-24406119.99433737]
- [  3787446.93959377]
- [  3787506.27765222]
- [  3787566.31937245]
- [  3787627.45488046]
- [  3787690.09491543]
- [  3787754.67967971]
- [  3788642.77104777]
- [  3788935.45014949]
- [  3789264.70600153]
- [  3789298.88215689]
- [  3788887.81091288]
- [  3789043.12956658]
- [  3788112.28979499]
- [  3788149.78522089]
- [  3788186.83512083]]</t>
+          <t>[[ -1089385.02102676]
+ [ -8525426.98240054]
+ [-23205526.3417234 ]
+ [  3787433.19858683]
+ [  3787488.24960042]
+ [  3787543.94336757]
+ [  3787600.63064782]
+ [  3787658.68111525]
+ [  3787718.49120831]
+ [  3788555.38361217]
+ [  3788825.65041295]
+ [  3789128.97533264]
+ [  3789163.13667611]
+ [  3788792.55013363]
+ [  3788937.97173406]
+ [  3788056.07669901]
+ [  3788091.19061661]
+ [  3788125.89021959]]</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -6664,24 +6669,24 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>[[  -7514.43077716]
- [ -65561.06794226]
- [-203999.85863522]
- [  22432.64406538]
- [  22433.13457274]
- [  22433.63210584]
- [  22434.13991153]
- [  22434.66142341]
- [  22435.20033619]
- [  22442.53318646]
- [  22444.99080835]
- [  22447.76567714]
- [  22448.10308389]
- [  22444.72950353]
- [  22446.07362397]
- [  22438.307406  ]
- [  22438.63540026]
- [  22438.96070887]]</t>
+          <t>[[  -8951.7685163 ]
+ [ -70281.67376968]
+ [-194516.18570172]
+ [  22432.53475599]
+ [  22432.99048452]
+ [  22433.45266074]
+ [  22433.92420808]
+ [  22434.40822122]
+ [  22434.90803227]
+ [  22441.82526711]
+ [  22444.09811739]
+ [  22446.65834196]
+ [  22446.99302632]
+ [  22443.95075472]
+ [  22445.21137905]
+ [  22437.84545666]
+ [  22438.15315909]
+ [  22438.45837251]]</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -6704,24 +6709,24 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>[[  -47427.14267528]
- [ -752974.69719567]
- [-4864414.49085123]
- [-5556666.61573494]
- [-5518363.7292737 ]
- [-5479950.83698716]
- [-5441432.04691627]
- [-5402811.49212631]
- [-5364093.34529422]
- [-5286359.40282919]
- [-5208282.42360384]
- [-5129898.99747634]
- [-5051247.60217992]
- [-4972339.21987463]
- [-4893174.36946326]
- [-4853517.63073626]
- [-4813806.38360952]
- [-4774043.16963704]]</t>
+          <t>[[  -57358.2333154 ]
+ [ -847776.44663066]
+ [-4879339.86332251]
+ [-5551109.07502186]
+ [-5512948.63949691]
+ [-5474700.07714993]
+ [-5436367.10655733]
+ [-5397953.46806436]
+ [-5359462.93695397]
+ [-5282245.89635555]
+ [-5204763.99330422]
+ [-5127050.30941176]
+ [-5049139.60928961]
+ [-4971041.57731431]
+ [-4892756.42113596]
+ [-4853564.03864196]
+ [-4814333.55770282]
+ [-4775067.25166452]]</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -6744,24 +6749,24 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[[5.80734385e+06]
- [9.22436339e+07]
- [5.89364179e+08]
- [6.72103944e+08]
- [6.65679543e+08]
- [6.59241892e+08]
- [6.52791527e+08]
- [6.46328984e+08]
- [6.39854803e+08]
- [6.26871062e+08]
- [6.13846881e+08]
- [6.00786903e+08]
- [5.87695969e+08]
- [5.74575589e+08]
- [5.61426015e+08]
- [5.54842949e+08]
- [5.48253797e+08]
- [5.41658885e+08]]</t>
+          <t>[[7.01835969e+06]
+ [1.03741726e+08]
+ [5.90309589e+08]
+ [6.70456017e+08]
+ [6.64049137e+08]
+ [6.57631663e+08]
+ [6.51204074e+08]
+ [6.44766853e+08]
+ [6.38320483e+08]
+ [6.25399754e+08]
+ [6.12447896e+08]
+ [5.99469073e+08]
+ [5.86467623e+08]
+ [5.73444849e+08]
+ [5.60400914e+08]
+ [5.53873483e+08]
+ [5.47341844e+08]
+ [5.40806284e+08]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6784,24 +6789,24 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[1267925.29964153]
- [2926544.23827464]
- [5486960.94100866]
- [9738124.36525371]
- [9738104.2205963 ]
- [9738084.03377424]
- [9738063.76202267]
- [9738043.36152867]
- [9738022.78687456]
- [9738001.99043584]
- [9737959.49850063]
- [9737915.45511447]
- [9737869.31280878]
- [9737829.98499724]
- [9737798.67200427]
- [9737767.35921262]
- [9737751.70289231]
- [9737736.04662235]]</t>
+          <t>[[1315967.27371651]
+ [3010761.39482783]
+ [5572287.45166748]
+ [9737926.47783594]
+ [9737906.50646147]
+ [9737886.49466046]
+ [9737866.40143049]
+ [9737846.18476803]
+ [9737825.80113324]
+ [9737805.20487401]
+ [9737763.15046114]
+ [9737719.60867675]
+ [9737674.05431483]
+ [9737635.04572545]
+ [9737603.73398772]
+ [9737572.42245132]
+ [9737556.7667586 ]
+ [9737541.11111626]]</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -6853,11 +6858,11 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         8.         8.         8.         8.         8.
- 8.         8.         8.         8.         8.         8.
- 8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 7.50811437 6.75405718 6.         6.         6.
  6.        ]</t>
         </is>
       </c>
@@ -6881,11 +6886,11 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>[0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.03515992 0.03515992 0.03515992 0.025      0.025      0.025
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.075     0.075     0.075     0.075     0.075     0.075     0.075
+ 0.075     0.075     0.075     0.075     0.075     0.075     0.075
+ 0.075     0.075     0.075     0.075     0.0283413 0.0283413 0.0283413
+ 0.02      0.02      0.02      0.02      0.02      0.02      0.02
+ 0.02      0.02     ]</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -7033,11 +7038,11 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>[1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
- 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
- 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
- 0.94136625 0.94136625 0.94136625 0.67019989 0.67019989 0.67019989
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[2.06409083 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083
+ 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083
+ 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083
+ 0.78443206 0.78443206 0.78443206 0.55412188 0.55412188 0.55412188
+ 0.52877421 0.47807889 0.42738356 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -7060,11 +7065,11 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>[1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 0.44582003 0.44582003 0.44582003 0.31478414 0.31478414 0.31478414
+ 0.30040024 0.27163248 0.24286481 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -7087,11 +7092,11 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>[1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 0.44582003 0.44582003 0.44582003 0.31478414 0.31478414 0.31478414
+ 0.30040024 0.27163248 0.24286481 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -7114,11 +7119,11 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>[14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
- 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
- 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
-  7.46502418  7.46502418  7.46502418  5.32819383  5.32819383  5.32819383
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+ 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+ 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+  6.64774441  6.64774441  6.64774441  4.70545003  4.70545003  4.70545003
+  4.08880435  3.0219331   2.1589394   1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -7141,11 +7146,11 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
- 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
- 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
-  7.46502418  7.46502418  7.46502418  5.32819383  5.32819383  5.32819383
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+ 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+ 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+  6.64774441  6.64774441  6.64774441  4.70545003  4.70545003  4.70545003
+  4.08880435  3.0219331   2.1589394   1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -7168,11 +7173,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
- 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
- 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
- 14.93004837 14.93004837 14.93004837 10.65638765 10.65638765 10.65638765
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[34.59179018 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018
+ 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018
+ 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018
+ 13.29548883 13.29548883 13.29548883  9.41090005  9.41090005  9.41090005
+  8.17760871  6.04386621  4.3178788   3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7195,36 +7200,36 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[-2.85338711e+07]
- [-2.63929669e+07]
- [-2.39460069e+07]
- [-2.36399563e+07]
- [-2.33332638e+07]
- [-2.30252797e+07]
- [-2.27153384e+07]
- [-2.24027498e+07]
- [-2.20867903e+07]
- [-2.14412077e+07]
- [-2.07720479e+07]
- [-2.00709923e+07]
- [-1.94734664e+07]
- [-1.89977099e+07]
- [-1.85219534e+07]
- [-1.82840752e+07]
- [-1.80461969e+07]
- [-1.78083187e+07]
- [-1.59058100e+07]
- [-1.49825433e+07]
- [-1.40589184e+07]
- [-1.31179607e+07]
- [-1.21766573e+07]
- [-1.12350185e+07]
- [-1.06933511e+07]
- [-1.01986924e+07]
- [-9.75125272e+06]
- [-9.46880457e+06]
- [-9.18644464e+06]
- [ 1.14378054e-08]]</t>
+          <t>[[-2.82247474e+07]
+ [-2.58565324e+07]
+ [-2.31627765e+07]
+ [-2.28271294e+07]
+ [-2.24908015e+07]
+ [-2.21531037e+07]
+ [-2.18133300e+07]
+ [-2.14707486e+07]
+ [-2.11245923e+07]
+ [-2.04177894e+07]
+ [-1.96859820e+07]
+ [-1.89203422e+07]
+ [-1.82647126e+07]
+ [-1.77384426e+07]
+ [-1.72121726e+07]
+ [-1.69490376e+07]
+ [-1.66859026e+07]
+ [-1.64227676e+07]
+ [-1.46736983e+07]
+ [-1.39038164e+07]
+ [-1.31335672e+07]
+ [-1.23546233e+07]
+ [-1.15753239e+07]
+ [-1.07956799e+07]
+ [-1.03489709e+07]
+ [-9.94481823e+06]
+ [-9.58345424e+06]
+ [-9.35692884e+06]
+ [-9.13050678e+06]
+ [-5.06406650e-09]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7247,36 +7252,36 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[-9.15689536e+05]
- [-7.96550219e+06]
- [-2.44061200e+07]
- [ 3.78744694e+06]
- [ 3.78750628e+06]
- [ 3.78756632e+06]
- [ 3.78762745e+06]
- [ 3.78769009e+06]
- [ 3.78775468e+06]
- [ 3.78864277e+06]
- [ 3.78893545e+06]
- [ 3.78926471e+06]
- [ 3.78929888e+06]
- [ 3.78888781e+06]
- [ 3.78904313e+06]
- [ 3.78811229e+06]
- [ 3.78814979e+06]
- [ 3.78818684e+06]
- [ 3.79253360e+06]
- [ 3.79448414e+06]
- [ 3.79622382e+06]
- [ 3.79869138e+06]
- [ 3.80120715e+06]
- [ 3.80310845e+06]
- [ 3.79694706e+06]
- [ 3.79646287e+06]
- [ 3.79582869e+06]
- [ 3.79266270e+06]
- [ 3.79263666e+06]
- [ 5.50883059e+03]]</t>
+          <t>[[-1.08938502e+06]
+ [-8.52542698e+06]
+ [-2.32055263e+07]
+ [ 3.78743320e+06]
+ [ 3.78748825e+06]
+ [ 3.78754394e+06]
+ [ 3.78760063e+06]
+ [ 3.78765868e+06]
+ [ 3.78771849e+06]
+ [ 3.78855538e+06]
+ [ 3.78882565e+06]
+ [ 3.78912898e+06]
+ [ 3.78916314e+06]
+ [ 3.78879255e+06]
+ [ 3.78893797e+06]
+ [ 3.78805608e+06]
+ [ 3.78809119e+06]
+ [ 3.78812589e+06]
+ [ 3.79120291e+06]
+ [ 3.79302791e+06]
+ [ 3.79465703e+06]
+ [ 3.79689132e+06]
+ [ 3.79925424e+06]
+ [ 3.80104253e+06]
+ [ 3.79568918e+06]
+ [ 3.79522515e+06]
+ [ 3.79461825e+06]
+ [ 3.79186540e+06]
+ [ 3.79183908e+06]
+ [ 4.71113431e+03]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7299,36 +7304,36 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[-7.51443078e+03]
- [-6.55610679e+04]
- [-2.03999859e+05]
- [ 2.24326441e+04]
- [ 2.24331346e+04]
- [ 2.24336321e+04]
- [ 2.24341399e+04]
- [ 2.24346614e+04]
- [ 2.24352003e+04]
- [ 2.24425332e+04]
- [ 2.24449908e+04]
- [ 2.24477657e+04]
- [ 2.24481031e+04]
- [ 2.24447295e+04]
- [ 2.24460736e+04]
- [ 2.24383074e+04]
- [ 2.24386354e+04]
- [ 2.24389607e+04]
- [ 2.24759970e+04]
- [ 2.24937420e+04]
- [ 2.25101875e+04]
- [ 2.25345993e+04]
- [ 2.25617755e+04]
- [ 2.25851226e+04]
- [ 2.25286441e+04]
- [ 2.25271059e+04]
- [ 2.25251253e+04]
- [ 2.24939550e+04]
- [ 2.24969885e+04]
- [ 6.86598580e+01]]</t>
+          <t>[[-8.95176852e+03]
+ [-7.02816738e+04]
+ [-1.94516186e+05]
+ [ 2.24325348e+04]
+ [ 2.24329905e+04]
+ [ 2.24334527e+04]
+ [ 2.24339242e+04]
+ [ 2.24344082e+04]
+ [ 2.24349080e+04]
+ [ 2.24418253e+04]
+ [ 2.24440981e+04]
+ [ 2.24466583e+04]
+ [ 2.24469930e+04]
+ [ 2.24439508e+04]
+ [ 2.24452114e+04]
+ [ 2.24378455e+04]
+ [ 2.24381532e+04]
+ [ 2.24384584e+04]
+ [ 2.24648000e+04]
+ [ 2.24814346e+04]
+ [ 2.24968653e+04]
+ [ 2.25190953e+04]
+ [ 2.25446688e+04]
+ [ 2.25666620e+04]
+ [ 2.25171670e+04]
+ [ 2.25155792e+04]
+ [ 2.25136302e+04]
+ [ 2.24862981e+04]
+ [ 2.24893303e+04]
+ [ 6.10001067e+01]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7351,36 +7356,36 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[-4.74271427e+04]
- [-7.52974697e+05]
- [-4.86441449e+06]
- [-5.55666662e+06]
- [-5.51836373e+06]
- [-5.47995084e+06]
- [-5.44143205e+06]
- [-5.40281149e+06]
- [-5.36409335e+06]
- [-5.28635940e+06]
- [-5.20828242e+06]
- [-5.12989900e+06]
- [-5.05124760e+06]
- [-4.97233922e+06]
- [-4.89317437e+06]
- [-4.85351763e+06]
- [-4.81380638e+06]
- [-4.77404317e+06]
- [-4.46557366e+06]
- [-4.15049175e+06]
- [-3.83024019e+06]
- [-3.36322616e+06]
- [-2.88619955e+06]
- [-2.40299626e+06]
- [-2.11208979e+06]
- [-1.82004199e+06]
- [-1.52647161e+06]
- [-1.33009309e+06]
- [-1.13315982e+06]
- [-6.77410923e-04]]</t>
+          <t>[[-5.73582333e+04]
+ [-8.47776447e+05]
+ [-4.87933986e+06]
+ [-5.55110908e+06]
+ [-5.51294864e+06]
+ [-5.47470008e+06]
+ [-5.43636711e+06]
+ [-5.39795347e+06]
+ [-5.35946294e+06]
+ [-5.28224590e+06]
+ [-5.20476399e+06]
+ [-5.12705031e+06]
+ [-5.04913961e+06]
+ [-4.97104158e+06]
+ [-4.89275642e+06]
+ [-4.85356404e+06]
+ [-4.81433356e+06]
+ [-4.77506725e+06]
+ [-4.47016241e+06]
+ [-4.15807185e+06]
+ [-3.84019703e+06]
+ [-3.37536418e+06]
+ [-2.89898278e+06]
+ [-2.41490603e+06]
+ [-2.12264018e+06]
+ [-1.82853496e+06]
+ [-1.53200028e+06]
+ [-1.33303377e+06]
+ [-1.13304788e+06]
+ [-6.01804639e-04]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7403,36 +7408,36 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 5.80734385e+06]
- [ 9.22436339e+07]
- [ 5.89364179e+08]
- [ 6.72103944e+08]
- [ 6.65679543e+08]
- [ 6.59241892e+08]
- [ 6.52791527e+08]
- [ 6.46328984e+08]
- [ 6.39854803e+08]
- [ 6.26871062e+08]
- [ 6.13846881e+08]
- [ 6.00786903e+08]
- [ 5.87695969e+08]
- [ 5.74575589e+08]
- [ 5.61426015e+08]
- [ 5.54842949e+08]
- [ 5.48253797e+08]
- [ 5.41658885e+08]
- [ 4.90684699e+08]
- [ 4.38993089e+08]
- [ 3.86770720e+08]
- [ 3.11253495e+08]
- [ 2.34878648e+08]
- [ 1.58124487e+08]
- [ 1.12124640e+08]
- [ 6.61670972e+07]
- [ 2.02844612e+07]
- [-1.02089276e+07]
- [-4.06088987e+07]
- [ 5.43448482e-02]]</t>
+          <t>[[ 7.01835969e+06]
+ [ 1.03741726e+08]
+ [ 5.90309589e+08]
+ [ 6.70456017e+08]
+ [ 6.64049137e+08]
+ [ 6.57631663e+08]
+ [ 6.51204074e+08]
+ [ 6.44766853e+08]
+ [ 6.38320483e+08]
+ [ 6.25399754e+08]
+ [ 6.12447896e+08]
+ [ 5.99469073e+08]
+ [ 5.86467623e+08]
+ [ 5.73444849e+08]
+ [ 5.60400914e+08]
+ [ 5.53873483e+08]
+ [ 5.47341844e+08]
+ [ 5.40806284e+08]
+ [ 4.90258289e+08]
+ [ 4.38928996e+08]
+ [ 3.87001469e+08]
+ [ 3.11777696e+08]
+ [ 2.35543474e+08]
+ [ 1.58787419e+08]
+ [ 1.12712206e+08]
+ [ 6.66281498e+07]
+ [ 2.05683256e+07]
+ [-1.00682367e+07]
+ [-4.06205559e+07]
+ [ 4.64756876e-02]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7455,36 +7460,36 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>[[1267925.29964153]
- [2926544.23827464]
- [5486960.94100866]
- [9738124.36525371]
- [9738104.2205963 ]
- [9738084.03377424]
- [9738063.76202267]
- [9738043.36152867]
- [9738022.78687456]
- [9738001.99043584]
- [9737959.49850063]
- [9737915.45511447]
- [9737869.31280878]
- [9737829.98499724]
- [9737798.67200427]
- [9737767.35921262]
- [9737751.70289231]
- [9737736.04662235]
- [9738743.76745049]
- [9738623.47564466]
- [9738503.00531637]
- [9739124.746521  ]
- [9738952.27408507]
- [9738779.74439801]
- [9738696.98055444]
- [9738788.87033336]
- [9738911.07638571]
- [9738933.45190322]
- [9738864.3533933 ]
- [      0.        ]]</t>
+          <t>[[1.31596727e+06]
+ [3.01076139e+06]
+ [5.57228745e+06]
+ [9.73792648e+06]
+ [9.73790651e+06]
+ [9.73788649e+06]
+ [9.73786640e+06]
+ [9.73784618e+06]
+ [9.73782580e+06]
+ [9.73780520e+06]
+ [9.73776315e+06]
+ [9.73771961e+06]
+ [9.73767405e+06]
+ [9.73763505e+06]
+ [9.73760373e+06]
+ [9.73757242e+06]
+ [9.73755677e+06]
+ [9.73754111e+06]
+ [9.73896610e+06]
+ [9.73884576e+06]
+ [9.73872520e+06]
+ [9.73945944e+06]
+ [9.73928674e+06]
+ [9.73911397e+06]
+ [9.73905586e+06]
+ [9.73920703e+06]
+ [9.73940630e+06]
+ [9.73947611e+06]
+ [9.73940689e+06]
+ [1.69175019e-08]]</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -8089,7 +8094,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>[2262099.36174629]</t>
+          <t>[1962872.00954513]</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -8112,7 +8117,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>[804315.34569915]</t>
+          <t>[662910.71569004]</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -8135,7 +8140,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>[3207099.36174629]</t>
+          <t>[2907872.00954513]</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -8158,7 +8163,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>[213.80662412]</t>
+          <t>[193.85813397]</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -8181,7 +8186,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>[804315.34569915]</t>
+          <t>[662910.71569004]</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -8250,7 +8255,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>[2262099.36174629]</t>
+          <t>[1962872.00954513]</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -8273,7 +8278,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>[2262099.36174629]</t>
+          <t>[1962872.00954513]</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -8296,8 +8301,8 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[193.89213296 228.37776098 251.93735203 270.25664581 291.24015985
+ 308.37640177 322.96500102 297.82001069 269.58744372 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -8513,8 +8518,8 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 7.50811437 6.75405718 6.         6.         6.
  6.        ]</t>
         </is>
       </c>
@@ -8609,8 +8614,8 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[193.89213296 228.37776098 251.93735203 270.25664581 291.24015985
+ 308.37640177 322.96500102 297.82001069 269.58744372 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -8751,8 +8756,8 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>[-186.11554727 -219.76188204 -242.71624674 -260.54450967 -280.94779448
- -297.63929912 -311.85803003 -289.98410118 -265.41229165 -237.66700775
+          <t>[-193.89213296 -228.37776098 -251.93735203 -270.25664581 -291.24015985
+ -308.37640177 -322.96500102 -297.82001069 -269.58744372 -237.66700775
  -241.01750595 -244.23967215 -247.34415233]</t>
         </is>
       </c>
@@ -8826,8 +8831,8 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[0.03515992 0.03515992 0.03515992 0.025      0.025      0.025
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.0283413 0.0283413 0.0283413 0.02      0.02      0.02      0.02
+ 0.02      0.02      0.02      0.02      0.02     ]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8968,8 +8973,8 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>[0.94136625 0.94136625 0.94136625 0.67019989 0.67019989 0.67019989
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[0.78443206 0.78443206 0.78443206 0.55412188 0.55412188 0.55412188
+ 0.52877421 0.47807889 0.42738356 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -8992,8 +8997,8 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>[0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.44582003 0.44582003 0.44582003 0.31478414 0.31478414 0.31478414
+ 0.30040024 0.27163248 0.24286481 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -9016,8 +9021,8 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>[0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.44582003 0.44582003 0.44582003 0.31478414 0.31478414 0.31478414
+ 0.30040024 0.27163248 0.24286481 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -9040,8 +9045,8 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>[7.46502418 7.46502418 7.46502418 5.32819383 5.32819383 5.32819383
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[6.64774441 6.64774441 6.64774441 4.70545003 4.70545003 4.70545003
+ 4.08880435 3.0219331  2.1589394  1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -9064,8 +9069,8 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[7.46502418 7.46502418 7.46502418 5.32819383 5.32819383 5.32819383
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[6.64774441 6.64774441 6.64774441 4.70545003 4.70545003 4.70545003
+ 4.08880435 3.0219331  2.1589394  1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -9088,8 +9093,8 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>[14.93004837 14.93004837 14.93004837 10.65638765 10.65638765 10.65638765
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[13.29548883 13.29548883 13.29548883  9.41090005  9.41090005  9.41090005
+  8.17760871  6.04386621  4.3178788   3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -9207,17 +9212,17 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>[[-15906768.01656574]
- [-14983143.10048426]
- [-14059260.05505754]
- [-13117956.67907294]
- [-12176317.89202569]
- [-11234399.6147994 ]
- [-10692773.72291411]
- [-10198366.94882873]
- [ -9751211.14539441]
- [ -9468851.22077098]
- [ -9186467.52414185]
+          <t>[[-14674587.77261103]
+ [-13904338.54715639]
+ [-13133824.25373622]
+ [-12354524.91087772]
+ [-11574880.88923787]
+ [-10794950.01147833]
+ [-10348298.26013962]
+ [ -9944435.20734622]
+ [ -9583397.55879915]
+ [ -9356975.49637406]
+ [ -9130529.66194339]
  [ -8904060.94535821]]</t>
         </is>
       </c>
@@ -9241,18 +9246,18 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>[[3788177.20632564]
- [3790184.65342486]
- [3791996.0547191 ]
- [3794509.56034207]
- [3797206.97961994]
- [3799305.4100125 ]
- [3794859.9212067 ]
- [3794644.18524507]
- [3794296.78115319]
- [3791772.1897011 ]
- [3791816.83207895]
- [3791792.38111495]]</t>
+          <t>[[3788115.38298406]
+ [3790007.66011352]
+ [3791716.33875344]
+ [3794050.96376849]
+ [3796602.52905408]
+ [3798589.99895553]
+ [3794383.09230362]
+ [3794129.01133294]
+ [3793751.27214281]
+ [3791399.52367747]
+ [3791445.69123513]
+ [3791422.03727118]]</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
@@ -9275,18 +9280,18 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>[[22439.16043863]
- [22457.12730616]
- [22473.92025305]
- [22498.31733233]
- [22526.50837019]
- [22551.00615607]
- [22509.61938031]
- [22510.25224066]
- [22510.58247578]
- [22485.26243092]
- [22488.76372063]
- [22491.82110291]]</t>
+          <t>[[22438.63440708]
+ [22455.60017077]
+ [22471.46655865]
+ [22494.17997554]
+ [22520.87241874]
+ [22544.07816833]
+ [22504.83650248]
+ [22504.94125665]
+ [22504.83217967]
+ [22481.28658886]
+ [22484.80953963]
+ [22487.87868302]]</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
@@ -9309,18 +9314,18 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>[[-4540677.69331401]
- [-4241732.18084596]
- [-3936530.54693045]
- [-3489334.16277988]
- [-3030281.2484648 ]
- [-2563214.39643922]
- [-2280959.56349304]
- [-1996879.66951379]
- [-1710550.10160124]
- [-1518543.33837212]
- [-1325642.76280853]
- [-1132156.51858266]]</t>
+          <t>[[-4578189.05742069]
+ [-4278697.07800194]
+ [-3972553.49682252]
+ [-3523085.86855967]
+ [-3060511.67329768]
+ [-2588710.36219149]
+ [-2302978.79031409]
+ [-2014816.21615018]
+ [-1723548.90236436]
+ [-1527658.89984833]
+ [-1330406.34419098]
+ [-1132156.52169372]]</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -9343,18 +9348,18 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[[ 5.07328468e+08]
- [ 4.57531656e+08]
- [ 4.07063667e+08]
- [ 3.33830579e+08]
- [ 2.59494236e+08]
- [ 1.84538635e+08]
- [ 1.39487801e+08]
- [ 9.43903251e+07]
- [ 4.92708164e+07]
- [ 1.92254871e+07]
- [-1.07725602e+07]
- [-4.06893976e+07]]</t>
+          <t>[[ 5.10623784e+08]
+ [ 4.60767341e+08]
+ [ 4.10198036e+08]
+ [ 3.36725868e+08]
+ [ 2.62030053e+08]
+ [ 1.86606866e+08]
+ [ 1.41223670e+08]
+ [ 9.57522083e+07]
+ [ 5.02118350e+07]
+ [ 1.98614218e+07]
+ [-1.04530765e+07]
+ [-4.06893974e+07]]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9377,18 +9382,18 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>[[9738744.07396748]
- [9738623.6006555 ]
- [9738503.08357945]
- [9739124.80914926]
- [9738952.27334916]
- [9738779.68218638]
- [9738696.8621703 ]
- [9738788.74933498]
- [9738911.00098387]
- [9738933.4417317 ]
- [9738864.36480672]
- [9738795.28304613]]</t>
+          <t>[[9738966.46502071]
+ [9738845.90289701]
+ [9738725.28622752]
+ [9739459.49523458]
+ [9739286.7194713 ]
+ [9739113.87342443]
+ [9739055.68834861]
+ [9739206.85579466]
+ [9739406.19182348]
+ [9739476.09501583]
+ [9739406.90494467]
+ [9739337.70859248]]</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
@@ -9551,15 +9556,15 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[[-186.11554727]
- [-219.76188204]
- [-242.71624674]
- [-260.54450967]
- [-280.94779448]
- [-297.63929912]
- [-311.85803003]
- [-289.98410118]
- [-265.41229165]
+          <t>[[-193.89213296]
+ [-228.37776098]
+ [-251.93735203]
+ [-270.25664581]
+ [-291.24015985]
+ [-308.37640177]
+ [-322.96500102]
+ [-297.82001069]
+ [-269.58744372]
  [-237.66700775]
  [-241.01750595]
  [-244.23967215]
@@ -9586,7 +9591,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[804315.34569915]</t>
+          <t>[662910.71569004]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9609,7 +9614,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>[65.09913825]</t>
+          <t>[64.6023267]</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -9632,7 +9637,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>[4.86269567e+09 4.86269567e+09 1.16544179e+07 0.00000000e+00
+          <t>[3.95708187e+09 3.95708187e+09 1.02044971e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -9656,7 +9661,8 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 8. 8. 8. 8.]</t>
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155]</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -9679,7 +9685,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
@@ -9744,7 +9750,8 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 8. 8. 8. 8.]</t>
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155]</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
@@ -9767,7 +9774,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -10005,7 +10012,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[1164365.87139489]</t>
+          <t>[1287992.67787672]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -10028,7 +10035,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[2877410.15457617]</t>
+          <t>[3158613.88405283]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -10074,7 +10081,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[2.49313387e+09 2.49313387e+09 1.83066842e+07 0.00000000e+00
+          <t>[2.75851035e+09 2.75851035e+09 2.15852771e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10098,7 +10105,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[804315.34569915]</t>
+          <t>[662910.71569004]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10121,7 +10128,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>[2262099.36174629]</t>
+          <t>[1962872.00954513]</t>
         </is>
       </c>
       <c r="E389" t="inlineStr"/>
@@ -10213,7 +10220,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[8.]</t>
+          <t>[8.26217155]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10236,7 +10243,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[8.26217155 8.26217155 8.26217155 6.         6.        ]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10259,7 +10266,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[0.03515992 0.025      0.025      0.025     ]</t>
+          <t>[0.0283413 0.02      0.02      0.02     ]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10324,7 +10331,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[8.26217155 8.26217155 8.26217155 6.         6.        ]</t>
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
@@ -10347,7 +10354,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>[0.03515992 0.025      0.025      0.025     ]</t>
+          <t>[0.0283413 0.02      0.02      0.02     ]</t>
         </is>
       </c>
       <c r="E399" t="inlineStr"/>
@@ -10642,10 +10649,10 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         41219.63874899
- 41413.55011127 41997.65358401 42979.11485504 44370.07455178
- 46187.96657769 48456.00867933 54468.8941471  62745.24639729
- 73799.67525922     0.             0.             0.
+          <t>[    0.             0.             0.         43843.88919729
+ 44049.56709282 44669.10524732 45710.07959028 47185.3315919
+ 49113.31388053 51518.62235174 57895.25797339 66672.85460755
+ 78399.75570449     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -10896,10 +10903,10 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         41219.63874899
- 41413.55011127 41997.65358401 42979.11485504 44370.07455178
- 46187.96657769 48456.00867933 54468.8941471  62745.24639729
- 73799.67525922     0.             0.             0.
+          <t>[    0.             0.             0.         43843.88919729
+ 44049.56709282 44669.10524732 45710.07959028 47185.3315919
+ 49113.31388053 51518.62235174 57895.25797339 66672.85460755
+ 78399.75570449     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -11281,10 +11288,10 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -41219.63874899
- -41413.55011127 -41997.65358401 -42979.11485504 -44370.07455178
- -46187.96657769 -48456.00867933 -54468.8941471  -62745.24639729
- -73799.67525922      0.              0.              0.
+          <t>[     0.              0.              0.         -43843.88919729
+ -44049.56709282 -44669.10524732 -45710.07959028 -47185.3315919
+ -49113.31388053 -51518.62235174 -57895.25797339 -66672.85460755
+ -78399.75570449      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11385,7 +11392,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>[0.13054951]</t>
+          <t>[0.13062582]</t>
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
@@ -11408,7 +11415,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[0.13       0.13054951 0.66667763 0.82813843 0.90741516 1.7407383 ]</t>
+          <t>[0.13       0.13062582 0.62550355 0.80773771 0.89961902 1.76897624]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11431,7 +11438,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[0.13054951 0.90741516 1.83627128]</t>
+          <t>[0.13062582 0.89961902 1.84162177]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11454,7 +11461,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>[0.13       0.82813843 1.7407383 ]</t>
+          <t>[0.13       0.80773771 1.76897624]</t>
         </is>
       </c>
       <c r="E445" t="inlineStr"/>
@@ -11477,7 +11484,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>[3.90287862 0.         0.        ]</t>
+          <t>[3.74980817 0.         0.        ]</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -11496,9 +11503,9 @@
       <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr">
         <is>
-          <t>[[  0.66881964   1.03581712  -0.68407126  -0.1527937    0.13222821]
- [ -3.96184312  -2.2456584   16.97663294 -14.33296403   4.56383261]
- [ -6.44215543   1.68789007  39.85860018 -47.62916343  13.52482861]]</t>
+          <t>[[  0.49195846   0.96233329   0.50230706  -1.70369318   0.74709437]
+ [ -3.65726713  -2.8366156   12.96477041  -7.92941885   2.45853117]
+ [ -6.17557766   0.312241    35.21343449 -35.72172278   7.37162495]]</t>
         </is>
       </c>
       <c r="E447" t="inlineStr"/>
@@ -11517,9 +11524,9 @@
       <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr">
         <is>
-          <t>[[  0.66576466   1.03290438  -0.67437858  -0.16087353   0.13658308]
- [ -4.00195892  -2.47631818  16.60955326 -13.93841443   4.80713827]
- [ -6.06008979   0.96902278  36.20309558 -41.22364179  11.11161322]]</t>
+          <t>[[  0.48915254   0.95913135   0.50884134  -1.70755944   0.75043421]
+ [ -3.73432281  -3.1071139   12.60953926  -7.70395048   2.93584794]
+ [ -5.8549261   -0.16649396  32.27996771 -31.08886439   5.83031673]]</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
@@ -11538,7 +11545,7 @@
       <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr">
         <is>
-          <t>[[ 0.16152265  2.47989644  1.6845266  -6.36621881  3.04027312]
+          <t>[[ 0.2576691   2.38432848  1.01563654 -5.39509893  2.73746482]
  [ 0.          0.          0.          0.          0.        ]
  [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
@@ -11559,9 +11566,9 @@
       <c r="C450" t="inlineStr"/>
       <c r="D450" t="inlineStr">
         <is>
-          <t>[[  0.84541218   0.22231368   0.2181092   -0.43722471   0.15138966]
- [ 15.1581198    1.71270287 -33.03396923  23.42135007  -6.25820351]
- [ -1.27519686   0.3113079    7.0545626   -6.81734619   1.72667255]]</t>
+          <t>[[ 0.71937528  0.2217912   0.67162035 -0.90990772  0.29712089]
+ [ 4.8657345   0.82631907 -7.67481748  4.04285133 -1.06008742]
+ [-1.6439777   0.17475907  7.54133083 -6.51209718  1.43998498]]</t>
         </is>
       </c>
       <c r="E450" t="inlineStr"/>
@@ -11580,9 +11587,9 @@
       <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr">
         <is>
-          <t>[[  0.84369168   0.22209811   0.22153126  -0.43972351   0.15240247]
- [  8.29683485   1.03587665 -16.69354521  11.61687781  -3.2560441 ]
- [ -1.49609578   0.26520909   7.49458597  -6.98888371   1.72518444]]</t>
+          <t>[[ 0.71772986  0.22155174  0.67449091 -0.91186845  0.29809594]
+ [ 3.73598148  0.66902576 -5.24006073  2.61974435 -0.78469085]
+ [-1.89651849  0.12367919  8.03225646 -6.69048344  1.43106629]]</t>
         </is>
       </c>
       <c r="E451" t="inlineStr"/>
@@ -11601,7 +11608,7 @@
       <c r="C452" t="inlineStr"/>
       <c r="D452" t="inlineStr">
         <is>
-          <t>[[ 0.64626067  0.45279789  1.23214513 -2.03835497  0.70715127]
+          <t>[[ 0.70038943  0.45009605  1.03195139 -1.84597998  0.66354311]
  [ 0.          0.          0.          0.          0.        ]
  [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
@@ -11626,37 +11633,37 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>[[2.96906978e-05]
- [3.27845818e-04]
- [1.35140185e-03]
- [9.96473965e-03]
- [1.40924407e-02]
- [1.88566948e-02]
- [2.42514127e-02]
- [3.02704926e-02]
- [3.69078209e-02]
- [4.41572720e-02]
- [6.04680184e-02]
- [7.91534822e-02]
- [1.00164284e-01]
- [1.23450904e-01]
- [1.48963746e-01]
- [1.76653114e-01]
- [1.91298404e-01]
- [2.06469128e-01]
- [2.22159045e-01]
- [3.73841923e-01]
- [5.79273456e-01]
- [8.32790612e-01]
- [1.28395624e+00]
- [1.83260364e+00]
- [2.45481722e+00]
- [2.85462337e+00]
- [3.27090462e+00]
- [3.70002903e+00]
- [3.98948538e+00]
- [4.27772489e+00]
- [4.56281380e+00]]</t>
+          <t>[[3.52168263e-05]
+ [3.44322976e-04]
+ [1.19757168e-03]
+ [9.23768370e-03]
+ [1.28654501e-02]
+ [1.70317404e-02]
+ [2.17314044e-02]
+ [2.69592837e-02]
+ [3.27102116e-02]
+ [3.89790137e-02]
+ [5.30495332e-02]
+ [6.91292772e-02]
+ [8.71766003e-02]
+ [1.07149768e-01]
+ [1.29007005e-01]
+ [1.52706478e-01]
+ [1.65233936e-01]
+ [1.78206225e-01]
+ [1.91618098e-01]
+ [3.29301511e-01]
+ [5.27291172e-01]
+ [7.79272083e-01]
+ [1.23986974e+00]
+ [1.81103820e+00]
+ [2.46574509e+00]
+ [2.88881477e+00]
+ [3.33117560e+00]
+ [3.78907492e+00]
+ [4.09854119e+00]
+ [4.40651141e+00]
+ [4.71054307e+00]]</t>
         </is>
       </c>
       <c r="E453" t="inlineStr"/>
@@ -11679,7 +11686,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>[4.5628138]</t>
+          <t>[4.71054307]</t>
         </is>
       </c>
       <c r="E454" t="inlineStr"/>
@@ -11702,24 +11709,24 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>[[-28533871.06663958]
- [-26392966.90287191]
- [-23946006.89960159]
- [-23639956.28048051]
- [-23333263.79847802]
- [-23025279.72743206]
- [-22715338.40836722]
- [-22402749.78680149]
- [-22086790.27329277]
- [-21441207.69959668]
- [-20772047.88952275]
- [-20070992.2908473 ]
- [-19473466.35317572]
- [-18997709.87233843]
- [-18521953.39150119]
- [-18284075.15108231]
- [-18046196.91066385]
- [-17808318.67024546]]</t>
+          <t>[[-28224747.36925492]
+ [-25856532.38664647]
+ [-23162776.50778482]
+ [-22827129.41193685]
+ [-22490801.51062992]
+ [-22153103.68395239]
+ [-21813329.97683595]
+ [-21470748.60140092]
+ [-21124592.2560956 ]
+ [-20417789.36881909]
+ [-19685981.99518494]
+ [-18920342.19703955]
+ [-18264712.60238294]
+ [-17738442.60624759]
+ [-17212172.61011219]
+ [-16949037.61204481]
+ [-16685902.61397727]
+ [-16422767.61590987]]</t>
         </is>
       </c>
       <c r="E455" t="inlineStr"/>
@@ -11742,24 +11749,24 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>[[  -915689.53633235]
- [ -7965502.19059035]
- [-24406119.99433737]
- [  3787446.93959377]
- [  3787506.27765222]
- [  3787566.31937245]
- [  3787627.45488046]
- [  3787690.09491543]
- [  3787754.67967971]
- [  3788642.77104777]
- [  3788935.45014949]
- [  3789264.70600153]
- [  3789298.88215689]
- [  3788887.81091288]
- [  3789043.12956658]
- [  3788112.28979499]
- [  3788149.78522089]
- [  3788186.83512083]]</t>
+          <t>[[ -1089385.02102676]
+ [ -8525426.98240054]
+ [-23205526.3417234 ]
+ [  3787433.19858683]
+ [  3787488.24960042]
+ [  3787543.94336757]
+ [  3787600.63064782]
+ [  3787658.68111525]
+ [  3787718.49120831]
+ [  3788555.38361217]
+ [  3788825.65041295]
+ [  3789128.97533264]
+ [  3789163.13667611]
+ [  3788792.55013363]
+ [  3788937.97173406]
+ [  3788056.07669901]
+ [  3788091.19061661]
+ [  3788125.89021959]]</t>
         </is>
       </c>
       <c r="E456" t="inlineStr"/>
@@ -11782,24 +11789,24 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>[[  -7514.43077716]
- [ -65561.06794226]
- [-203999.85863522]
- [  22432.64406538]
- [  22433.13457274]
- [  22433.63210584]
- [  22434.13991153]
- [  22434.66142341]
- [  22435.20033619]
- [  22442.53318646]
- [  22444.99080835]
- [  22447.76567714]
- [  22448.10308389]
- [  22444.72950353]
- [  22446.07362397]
- [  22438.307406  ]
- [  22438.63540026]
- [  22438.96070887]]</t>
+          <t>[[  -8951.7685163 ]
+ [ -70281.67376968]
+ [-194516.18570172]
+ [  22432.53475599]
+ [  22432.99048452]
+ [  22433.45266074]
+ [  22433.92420808]
+ [  22434.40822122]
+ [  22434.90803227]
+ [  22441.82526711]
+ [  22444.09811739]
+ [  22446.65834196]
+ [  22446.99302632]
+ [  22443.95075472]
+ [  22445.21137905]
+ [  22437.84545666]
+ [  22438.15315909]
+ [  22438.45837251]]</t>
         </is>
       </c>
       <c r="E457" t="inlineStr"/>
@@ -11822,24 +11829,24 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>[[  -47427.14267528]
- [ -752974.69719567]
- [-4864414.49085123]
- [-5556666.61573494]
- [-5518363.7292737 ]
- [-5479950.83698716]
- [-5441432.04691627]
- [-5402811.49212631]
- [-5364093.34529422]
- [-5286359.40282919]
- [-5208282.42360384]
- [-5129898.99747634]
- [-5051247.60217992]
- [-4972339.21987463]
- [-4893174.36946326]
- [-4853517.63073626]
- [-4813806.38360952]
- [-4774043.16963704]]</t>
+          <t>[[  -57358.2333154 ]
+ [ -847776.44663066]
+ [-4879339.86332251]
+ [-5551109.07502186]
+ [-5512948.63949691]
+ [-5474700.07714993]
+ [-5436367.10655733]
+ [-5397953.46806436]
+ [-5359462.93695397]
+ [-5282245.89635555]
+ [-5204763.99330422]
+ [-5127050.30941176]
+ [-5049139.60928961]
+ [-4971041.57731431]
+ [-4892756.42113596]
+ [-4853564.03864196]
+ [-4814333.55770282]
+ [-4775067.25166452]]</t>
         </is>
       </c>
       <c r="E458" t="inlineStr"/>
@@ -11862,24 +11869,24 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>[[5.80734385e+06]
- [9.22436339e+07]
- [5.89364179e+08]
- [6.72103944e+08]
- [6.65679543e+08]
- [6.59241892e+08]
- [6.52791527e+08]
- [6.46328984e+08]
- [6.39854803e+08]
- [6.26871062e+08]
- [6.13846881e+08]
- [6.00786903e+08]
- [5.87695969e+08]
- [5.74575589e+08]
- [5.61426015e+08]
- [5.54842949e+08]
- [5.48253797e+08]
- [5.41658885e+08]]</t>
+          <t>[[7.01835969e+06]
+ [1.03741726e+08]
+ [5.90309589e+08]
+ [6.70456017e+08]
+ [6.64049137e+08]
+ [6.57631663e+08]
+ [6.51204074e+08]
+ [6.44766853e+08]
+ [6.38320483e+08]
+ [6.25399754e+08]
+ [6.12447896e+08]
+ [5.99469073e+08]
+ [5.86467623e+08]
+ [5.73444849e+08]
+ [5.60400914e+08]
+ [5.53873483e+08]
+ [5.47341844e+08]
+ [5.40806284e+08]]</t>
         </is>
       </c>
       <c r="E459" t="inlineStr"/>
@@ -11902,24 +11909,24 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>[[1267925.29964153]
- [2926544.23827464]
- [5486960.94100866]
- [9738124.36525371]
- [9738104.2205963 ]
- [9738084.03377424]
- [9738063.76202267]
- [9738043.36152867]
- [9738022.78687456]
- [9738001.99043584]
- [9737959.49850063]
- [9737915.45511447]
- [9737869.31280878]
- [9737829.98499724]
- [9737798.67200427]
- [9737767.35921262]
- [9737751.70289231]
- [9737736.04662235]]</t>
+          <t>[[1315967.27371651]
+ [3010761.39482783]
+ [5572287.45166748]
+ [9737926.47783594]
+ [9737906.50646147]
+ [9737886.49466046]
+ [9737866.40143049]
+ [9737846.18476803]
+ [9737825.80113324]
+ [9737805.20487401]
+ [9737763.15046114]
+ [9737719.60867675]
+ [9737674.05431483]
+ [9737635.04572545]
+ [9737603.73398772]
+ [9737572.42245132]
+ [9737556.7667586 ]
+ [9737541.11111626]]</t>
         </is>
       </c>
       <c r="E460" t="inlineStr"/>
@@ -11942,9 +11949,9 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>[[ 3.78744694e+06]
- [ 2.24326441e+04]
- [-2.39460069e+07]]</t>
+          <t>[[ 3.78743320e+06]
+ [ 2.24325348e+04]
+ [-2.31627765e+07]]</t>
         </is>
       </c>
       <c r="E461" t="inlineStr"/>
@@ -11967,9 +11974,9 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>[[-5.59485540e+06]
- [ 6.78514562e+08]
- [ 9.73812437e+06]]</t>
+          <t>[[-5.58917767e+06]
+ [ 6.76851822e+08]
+ [ 9.73792648e+06]]</t>
         </is>
       </c>
       <c r="E462" t="inlineStr"/>
@@ -12021,11 +12028,11 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         8.         8.         8.         8.         8.
- 8.         8.         8.         8.         8.         8.
- 8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 7.50811437 6.75405718 6.         6.         6.
  6.        ]</t>
         </is>
       </c>
@@ -12049,11 +12056,11 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.03515992 0.03515992 0.03515992 0.025      0.025      0.025
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.075     0.075     0.075     0.075     0.075     0.075     0.075
+ 0.075     0.075     0.075     0.075     0.075     0.075     0.075
+ 0.075     0.075     0.075     0.075     0.0283413 0.0283413 0.0283413
+ 0.02      0.02      0.02      0.02      0.02      0.02      0.02
+ 0.02      0.02     ]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr"/>
@@ -12152,11 +12159,11 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
- 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
- 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
- 0.94136625 0.94136625 0.94136625 0.67019989 0.67019989 0.67019989
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[2.06409083 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083
+ 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083
+ 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083 2.06409083
+ 0.78443206 0.78443206 0.78443206 0.55412188 0.55412188 0.55412188
+ 0.52877421 0.47807889 0.42738356 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr"/>
@@ -12179,11 +12186,11 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>[1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 0.44582003 0.44582003 0.44582003 0.31478414 0.31478414 0.31478414
+ 0.30040024 0.27163248 0.24286481 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
@@ -12206,11 +12213,11 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>[1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
- 0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816 1.17615816
+ 0.44582003 0.44582003 0.44582003 0.31478414 0.31478414 0.31478414
+ 0.30040024 0.27163248 0.24286481 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E471" t="inlineStr"/>
@@ -12233,11 +12240,11 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>[29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
- 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
- 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
- 14.93004837 14.93004837 14.93004837 10.65638765 10.65638765 10.65638765
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[34.59179018 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018
+ 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018
+ 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018 34.59179018
+ 13.29548883 13.29548883 13.29548883  9.41090005  9.41090005  9.41090005
+  8.17760871  6.04386621  4.3178788   3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E472" t="inlineStr"/>
@@ -12260,11 +12267,11 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
- 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
- 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
-  7.46502418  7.46502418  7.46502418  5.32819383  5.32819383  5.32819383
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+ 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+ 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+  6.64774441  6.64774441  6.64774441  4.70545003  4.70545003  4.70545003
+  4.08880435  3.0219331   2.1589394   1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12287,11 +12294,11 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
- 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
- 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
-  7.46502418  7.46502418  7.46502418  5.32819383  5.32819383  5.32819383
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+ 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+ 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509 17.29589509
+  6.64774441  6.64774441  6.64774441  4.70545003  4.70545003  4.70545003
+  4.08880435  3.0219331   2.1589394   1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12416,36 +12423,36 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[[-2.85338711e+07]
- [-2.63929669e+07]
- [-2.39460069e+07]
- [-2.36399563e+07]
- [-2.33332638e+07]
- [-2.30252797e+07]
- [-2.27153384e+07]
- [-2.24027498e+07]
- [-2.20867903e+07]
- [-2.14412077e+07]
- [-2.07720479e+07]
- [-2.00709923e+07]
- [-1.94734664e+07]
- [-1.89977099e+07]
- [-1.85219534e+07]
- [-1.82840752e+07]
- [-1.80461969e+07]
- [-1.78083187e+07]
- [-1.59058100e+07]
- [-1.49825433e+07]
- [-1.40589184e+07]
- [-1.31179607e+07]
- [-1.21766573e+07]
- [-1.12350185e+07]
- [-1.06933511e+07]
- [-1.01986924e+07]
- [-9.75125272e+06]
- [-9.46880457e+06]
- [-9.18644464e+06]
- [ 1.14378054e-08]]</t>
+          <t>[[-2.82247474e+07]
+ [-2.58565324e+07]
+ [-2.31627765e+07]
+ [-2.28271294e+07]
+ [-2.24908015e+07]
+ [-2.21531037e+07]
+ [-2.18133300e+07]
+ [-2.14707486e+07]
+ [-2.11245923e+07]
+ [-2.04177894e+07]
+ [-1.96859820e+07]
+ [-1.89203422e+07]
+ [-1.82647126e+07]
+ [-1.77384426e+07]
+ [-1.72121726e+07]
+ [-1.69490376e+07]
+ [-1.66859026e+07]
+ [-1.64227676e+07]
+ [-1.46736983e+07]
+ [-1.39038164e+07]
+ [-1.31335672e+07]
+ [-1.23546233e+07]
+ [-1.15753239e+07]
+ [-1.07956799e+07]
+ [-1.03489709e+07]
+ [-9.94481823e+06]
+ [-9.58345424e+06]
+ [-9.35692884e+06]
+ [-9.13050678e+06]
+ [-5.06406650e-09]]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12468,36 +12475,36 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[[-9.15689536e+05]
- [-7.96550219e+06]
- [-2.44061200e+07]
- [ 3.78744694e+06]
- [ 3.78750628e+06]
- [ 3.78756632e+06]
- [ 3.78762745e+06]
- [ 3.78769009e+06]
- [ 3.78775468e+06]
- [ 3.78864277e+06]
- [ 3.78893545e+06]
- [ 3.78926471e+06]
- [ 3.78929888e+06]
- [ 3.78888781e+06]
- [ 3.78904313e+06]
- [ 3.78811229e+06]
- [ 3.78814979e+06]
- [ 3.78818684e+06]
- [ 3.79253360e+06]
- [ 3.79448414e+06]
- [ 3.79622382e+06]
- [ 3.79869138e+06]
- [ 3.80120715e+06]
- [ 3.80310845e+06]
- [ 3.79694706e+06]
- [ 3.79646287e+06]
- [ 3.79582869e+06]
- [ 3.79266270e+06]
- [ 3.79263666e+06]
- [ 5.50883059e+03]]</t>
+          <t>[[-1.08938502e+06]
+ [-8.52542698e+06]
+ [-2.32055263e+07]
+ [ 3.78743320e+06]
+ [ 3.78748825e+06]
+ [ 3.78754394e+06]
+ [ 3.78760063e+06]
+ [ 3.78765868e+06]
+ [ 3.78771849e+06]
+ [ 3.78855538e+06]
+ [ 3.78882565e+06]
+ [ 3.78912898e+06]
+ [ 3.78916314e+06]
+ [ 3.78879255e+06]
+ [ 3.78893797e+06]
+ [ 3.78805608e+06]
+ [ 3.78809119e+06]
+ [ 3.78812589e+06]
+ [ 3.79120291e+06]
+ [ 3.79302791e+06]
+ [ 3.79465703e+06]
+ [ 3.79689132e+06]
+ [ 3.79925424e+06]
+ [ 3.80104253e+06]
+ [ 3.79568918e+06]
+ [ 3.79522515e+06]
+ [ 3.79461825e+06]
+ [ 3.79186540e+06]
+ [ 3.79183908e+06]
+ [ 4.71113431e+03]]</t>
         </is>
       </c>
       <c r="E479" t="inlineStr"/>
@@ -12520,36 +12527,36 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>[[-7.51443078e+03]
- [-6.55610679e+04]
- [-2.03999859e+05]
- [ 2.24326441e+04]
- [ 2.24331346e+04]
- [ 2.24336321e+04]
- [ 2.24341399e+04]
- [ 2.24346614e+04]
- [ 2.24352003e+04]
- [ 2.24425332e+04]
- [ 2.24449908e+04]
- [ 2.24477657e+04]
- [ 2.24481031e+04]
- [ 2.24447295e+04]
- [ 2.24460736e+04]
- [ 2.24383074e+04]
- [ 2.24386354e+04]
- [ 2.24389607e+04]
- [ 2.24759970e+04]
- [ 2.24937420e+04]
- [ 2.25101875e+04]
- [ 2.25345993e+04]
- [ 2.25617755e+04]
- [ 2.25851226e+04]
- [ 2.25286441e+04]
- [ 2.25271059e+04]
- [ 2.25251253e+04]
- [ 2.24939550e+04]
- [ 2.24969885e+04]
- [ 6.86598580e+01]]</t>
+          <t>[[-8.95176852e+03]
+ [-7.02816738e+04]
+ [-1.94516186e+05]
+ [ 2.24325348e+04]
+ [ 2.24329905e+04]
+ [ 2.24334527e+04]
+ [ 2.24339242e+04]
+ [ 2.24344082e+04]
+ [ 2.24349080e+04]
+ [ 2.24418253e+04]
+ [ 2.24440981e+04]
+ [ 2.24466583e+04]
+ [ 2.24469930e+04]
+ [ 2.24439508e+04]
+ [ 2.24452114e+04]
+ [ 2.24378455e+04]
+ [ 2.24381532e+04]
+ [ 2.24384584e+04]
+ [ 2.24648000e+04]
+ [ 2.24814346e+04]
+ [ 2.24968653e+04]
+ [ 2.25190953e+04]
+ [ 2.25446688e+04]
+ [ 2.25666620e+04]
+ [ 2.25171670e+04]
+ [ 2.25155792e+04]
+ [ 2.25136302e+04]
+ [ 2.24862981e+04]
+ [ 2.24893303e+04]
+ [ 6.10001067e+01]]</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -12572,36 +12579,36 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[[-4.74271427e+04]
- [-7.52974697e+05]
- [-4.86441449e+06]
- [-5.55666662e+06]
- [-5.51836373e+06]
- [-5.47995084e+06]
- [-5.44143205e+06]
- [-5.40281149e+06]
- [-5.36409335e+06]
- [-5.28635940e+06]
- [-5.20828242e+06]
- [-5.12989900e+06]
- [-5.05124760e+06]
- [-4.97233922e+06]
- [-4.89317437e+06]
- [-4.85351763e+06]
- [-4.81380638e+06]
- [-4.77404317e+06]
- [-4.46557366e+06]
- [-4.15049175e+06]
- [-3.83024019e+06]
- [-3.36322616e+06]
- [-2.88619955e+06]
- [-2.40299626e+06]
- [-2.11208979e+06]
- [-1.82004199e+06]
- [-1.52647161e+06]
- [-1.33009309e+06]
- [-1.13315982e+06]
- [-6.77410923e-04]]</t>
+          <t>[[-5.73582333e+04]
+ [-8.47776447e+05]
+ [-4.87933986e+06]
+ [-5.55110908e+06]
+ [-5.51294864e+06]
+ [-5.47470008e+06]
+ [-5.43636711e+06]
+ [-5.39795347e+06]
+ [-5.35946294e+06]
+ [-5.28224590e+06]
+ [-5.20476399e+06]
+ [-5.12705031e+06]
+ [-5.04913961e+06]
+ [-4.97104158e+06]
+ [-4.89275642e+06]
+ [-4.85356404e+06]
+ [-4.81433356e+06]
+ [-4.77506725e+06]
+ [-4.47016241e+06]
+ [-4.15807185e+06]
+ [-3.84019703e+06]
+ [-3.37536418e+06]
+ [-2.89898278e+06]
+ [-2.41490603e+06]
+ [-2.12264018e+06]
+ [-1.82853496e+06]
+ [-1.53200028e+06]
+ [-1.33303377e+06]
+ [-1.13304788e+06]
+ [-6.01804639e-04]]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12624,36 +12631,36 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>[[ 5.80734385e+06]
- [ 9.22436339e+07]
- [ 5.89364179e+08]
- [ 6.72103944e+08]
- [ 6.65679543e+08]
- [ 6.59241892e+08]
- [ 6.52791527e+08]
- [ 6.46328984e+08]
- [ 6.39854803e+08]
- [ 6.26871062e+08]
- [ 6.13846881e+08]
- [ 6.00786903e+08]
- [ 5.87695969e+08]
- [ 5.74575589e+08]
- [ 5.61426015e+08]
- [ 5.54842949e+08]
- [ 5.48253797e+08]
- [ 5.41658885e+08]
- [ 4.90684699e+08]
- [ 4.38993089e+08]
- [ 3.86770720e+08]
- [ 3.11253495e+08]
- [ 2.34878648e+08]
- [ 1.58124487e+08]
- [ 1.12124640e+08]
- [ 6.61670972e+07]
- [ 2.02844612e+07]
- [-1.02089276e+07]
- [-4.06088987e+07]
- [ 5.43448482e-02]]</t>
+          <t>[[ 7.01835969e+06]
+ [ 1.03741726e+08]
+ [ 5.90309589e+08]
+ [ 6.70456017e+08]
+ [ 6.64049137e+08]
+ [ 6.57631663e+08]
+ [ 6.51204074e+08]
+ [ 6.44766853e+08]
+ [ 6.38320483e+08]
+ [ 6.25399754e+08]
+ [ 6.12447896e+08]
+ [ 5.99469073e+08]
+ [ 5.86467623e+08]
+ [ 5.73444849e+08]
+ [ 5.60400914e+08]
+ [ 5.53873483e+08]
+ [ 5.47341844e+08]
+ [ 5.40806284e+08]
+ [ 4.90258289e+08]
+ [ 4.38928996e+08]
+ [ 3.87001469e+08]
+ [ 3.11777696e+08]
+ [ 2.35543474e+08]
+ [ 1.58787419e+08]
+ [ 1.12712206e+08]
+ [ 6.66281498e+07]
+ [ 2.05683256e+07]
+ [-1.00682367e+07]
+ [-4.06205559e+07]
+ [ 4.64756876e-02]]</t>
         </is>
       </c>
       <c r="E482" t="inlineStr"/>
@@ -12676,36 +12683,36 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[[1267925.29964153]
- [2926544.23827464]
- [5486960.94100866]
- [9738124.36525371]
- [9738104.2205963 ]
- [9738084.03377424]
- [9738063.76202267]
- [9738043.36152867]
- [9738022.78687456]
- [9738001.99043584]
- [9737959.49850063]
- [9737915.45511447]
- [9737869.31280878]
- [9737829.98499724]
- [9737798.67200427]
- [9737767.35921262]
- [9737751.70289231]
- [9737736.04662235]
- [9738743.76745049]
- [9738623.47564466]
- [9738503.00531637]
- [9739124.746521  ]
- [9738952.27408507]
- [9738779.74439801]
- [9738696.98055444]
- [9738788.87033336]
- [9738911.07638571]
- [9738933.45190322]
- [9738864.3533933 ]
- [      0.        ]]</t>
+          <t>[[1.31596727e+06]
+ [3.01076139e+06]
+ [5.57228745e+06]
+ [9.73792648e+06]
+ [9.73790651e+06]
+ [9.73788649e+06]
+ [9.73786640e+06]
+ [9.73784618e+06]
+ [9.73782580e+06]
+ [9.73780520e+06]
+ [9.73776315e+06]
+ [9.73771961e+06]
+ [9.73767405e+06]
+ [9.73763505e+06]
+ [9.73760373e+06]
+ [9.73757242e+06]
+ [9.73755677e+06]
+ [9.73754111e+06]
+ [9.73896610e+06]
+ [9.73884576e+06]
+ [9.73872520e+06]
+ [9.73945944e+06]
+ [9.73928674e+06]
+ [9.73911397e+06]
+ [9.73905586e+06]
+ [9.73920703e+06]
+ [9.73940630e+06]
+ [9.73947611e+06]
+ [9.73940689e+06]
+ [1.69175019e-08]]</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -12728,24 +12735,24 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[[-1.37080600e+07]
- [ 1.10101429e+07]
- [ 1.47884591e+08]
- [ 1.70611479e+08]
- [ 1.69023961e+08]
- [ 1.67433522e+08]
- [ 1.65840664e+08]
- [ 1.64245905e+08]
- [ 1.62649779e+08]
- [ 1.59455202e+08]
- [ 1.56262232e+08]
- [ 1.53076595e+08]
- [ 1.49827033e+08]
- [ 1.46504185e+08]
- [ 1.43173375e+08]
- [ 1.41505713e+08]
- [ 1.39836392e+08]
- [ 1.38165500e+08]]</t>
+          <t>[[-1.19978035e+07]
+ [ 1.22524677e+07]
+ [ 1.29777157e+08]
+ [ 1.49083237e+08]
+ [ 1.47715887e+08]
+ [ 1.46346671e+08]
+ [ 1.44976045e+08]
+ [ 1.43604478e+08]
+ [ 1.42232458e+08]
+ [ 1.39488753e+08]
+ [ 1.36749727e+08]
+ [ 1.34020652e+08]
+ [ 1.31232876e+08]
+ [ 1.28377335e+08]
+ [ 1.25516740e+08]
+ [ 1.24085138e+08]
+ [ 1.22652530e+08]
+ [ 1.21218987e+08]]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12768,24 +12775,24 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[[ 1034240.61774425]
- [ 7891973.01495604]
- [23706389.69483449]
- [ 4890433.87449039]
- [ 4890486.94564937]
- [ 4890540.67298239]
- [ 4890595.41764014]
- [ 4890651.56002081]
- [ 4890709.50801908]
- [ 4891542.07676324]
- [ 4891811.59902466]
- [ 4892115.31662831]
- [ 4892141.17433706]
- [ 4891749.12843994]
- [ 4891890.96363125]
- [ 4891011.07737671]
- [ 4891044.21380106]
- [ 4891076.93114325]]</t>
+          <t>[[ 1083412.42966387]
+ [ 7608341.0145265 ]
+ [20396094.33130217]
+ [ 4383170.83024015]
+ [ 4383215.25244733]
+ [ 4383260.21633515]
+ [ 4383306.01524112]
+ [ 4383352.9584655 ]
+ [ 4383401.37788183]
+ [ 4384110.48805732]
+ [ 4384335.26097666]
+ [ 4384587.96408795]
+ [ 4384611.56984098]
+ [ 4384291.81925337]
+ [ 4384411.72525966]
+ [ 4383658.1520675 ]
+ [ 4383686.13818801]
+ [ 4383713.77204723]]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12810,17 +12817,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [ -6091203.97750812]
- [-11709756.71244838]
- [-10768079.74172374]
- [ -9833713.04289064]
- [ -8906815.63671786]
- [ -7987629.1986756 ]
- [ -7076481.91797352]
- [ -5729254.31630094]
- [ -3961784.77659458]
- [ -2237729.72360351]
- [  -693716.94340124]
+ [ -5869493.45956979]
+ [-11283539.45962928]
+ [-10376138.09183544]
+ [ -9475780.91320593]
+ [ -8582621.1563968 ]
+ [ -7696891.70026026]
+ [ -6818908.78841996]
+ [ -5520718.21299909]
+ [ -3817581.86399527]
+ [ -2156279.7807241 ]
+ [  -668466.7066016 ]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -12884,24 +12891,24 @@
       <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[[0.06251128]
- [0.0793656 ]
- [0.70767354]
- [0.80016851]
- [0.79068223]
- [0.78121378]
- [0.77176594]
- [0.76234176]
- [0.75294455]
- [0.7353094 ]
- [0.716727  ]
- [0.69833856]
- [0.68013267]
- [0.66356062]
- [0.64852534]
- [0.64099752]
- [0.63346295]
- [0.62592162]]</t>
+          <t>[[0.05491049]
+ [0.08136411]
+ [0.62141084]
+ [0.70186004]
+ [0.69343499]
+ [0.68503268]
+ [0.6766557 ]
+ [0.66830689]
+ [0.65998934]
+ [0.64449187]
+ [0.62809516]
+ [0.61190416]
+ [0.59590816]
+ [0.58150349]
+ [0.56859177]
+ [0.56213003]
+ [0.5556644 ]
+ [0.54919484]]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12920,24 +12927,24 @@
       <c r="C489" t="inlineStr"/>
       <c r="D489" t="inlineStr">
         <is>
-          <t>[[0.06544549]
- [0.10052424]
- [0.32354471]
- [0.06638498]
- [0.06448306]
- [0.06269756]
- [0.06103338]
- [0.05949498]
- [0.0580861 ]
- [0.07239853]
- [0.06630873]
- [0.06110498]
- [0.05727048]
- [0.05541165]
- [0.05454266]
- [0.0496322 ]
- [0.04921066]
- [0.04879068]]</t>
+          <t>[[0.05824279]
+ [0.09060797]
+ [0.27511685]
+ [0.05803677]
+ [0.0561678 ]
+ [0.05441245]
+ [0.05277679]
+ [0.05126663]
+ [0.0498871 ]
+ [0.06169634]
+ [0.05632952]
+ [0.05179855]
+ [0.04853096]
+ [0.04692579]
+ [0.04608417]
+ [0.04190858]
+ [0.04150283]
+ [0.04109904]]</t>
         </is>
       </c>
       <c r="E489" t="inlineStr"/>
@@ -12956,24 +12963,24 @@
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[[0.0955246 ]
- [0.20393523]
- [0.85603983]
- [0.9646724 ]
- [0.9549435 ]
- [0.94519714]
- [0.93543147]
- [0.92564458]
- [0.91583444]
- [0.89613046]
- [0.87630398]
- [0.85633053]
- [0.83673535]
- [0.81758439]
- [0.79841093]
- [0.7888193 ]
- [0.77922366]
- [0.76962444]]</t>
+          <t>[[0.08412053]
+ [0.18734179]
+ [0.73008973]
+ [0.81961782]
+ [0.8112624 ]
+ [0.80289454]
+ [0.79451249]
+ [0.78611443]
+ [0.77769846]
+ [0.76080014]
+ [0.74380242]
+ [0.72668232]
+ [0.70991077]
+ [0.69354745]
+ [0.67717298]
+ [0.66898436]
+ [0.66079418]
+ [0.65260275]]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -12996,36 +13003,36 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[[-1.37080600e+07]
- [ 1.10101429e+07]
- [ 1.47884591e+08]
- [ 1.70611479e+08]
- [ 1.69023961e+08]
- [ 1.67433522e+08]
- [ 1.65840664e+08]
- [ 1.64245905e+08]
- [ 1.62649779e+08]
- [ 1.59455202e+08]
- [ 1.56262232e+08]
- [ 1.53076595e+08]
- [ 1.49827033e+08]
- [ 1.46504185e+08]
- [ 1.43173375e+08]
- [ 1.41505713e+08]
- [ 1.39836392e+08]
- [ 1.38165500e+08]
- [ 2.46039012e+08]
- [ 2.19321383e+08]
- [ 1.92319761e+08]
- [ 2.14105729e+08]
- [ 1.58173524e+08]
- [ 1.01957783e+08]
- [ 7.50554666e+07]
- [ 4.75917953e+07]
- [ 6.03247168e+06]
- [-5.07423227e+06]
- [ 3.60932778e+07]
- [ 7.27626493e-02]]</t>
+          <t>[[-1.19978035e+07]
+ [ 1.22524677e+07]
+ [ 1.29777157e+08]
+ [ 1.49083237e+08]
+ [ 1.47715887e+08]
+ [ 1.46346671e+08]
+ [ 1.44976045e+08]
+ [ 1.43604478e+08]
+ [ 1.42232458e+08]
+ [ 1.39488753e+08]
+ [ 1.36749727e+08]
+ [ 1.34020652e+08]
+ [ 1.31232876e+08]
+ [ 1.28377335e+08]
+ [ 1.25516740e+08]
+ [ 1.24085138e+08]
+ [ 1.22652530e+08]
+ [ 1.21218987e+08]
+ [ 2.85966105e+08]
+ [ 2.55049739e+08]
+ [ 2.23762108e+08]
+ [ 2.51441164e+08]
+ [ 1.85918357e+08]
+ [ 1.19938872e+08]
+ [ 8.91287877e+07]
+ [ 5.78417336e+07]
+ [ 8.03774001e+06]
+ [-6.32009922e+06]
+ [ 4.51243406e+07]
+ [ 7.75892128e-02]]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -13048,36 +13055,36 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[[1.03424062e+06]
- [7.89197301e+06]
- [2.37063897e+07]
- [4.89043387e+06]
- [4.89048695e+06]
- [4.89054067e+06]
- [4.89059542e+06]
- [4.89065156e+06]
- [4.89070951e+06]
- [4.89154208e+06]
- [4.89181160e+06]
- [4.89211532e+06]
- [4.89214117e+06]
- [4.89174913e+06]
- [4.89189096e+06]
- [4.89101108e+06]
- [4.89104421e+06]
- [4.89107693e+06]
- [9.69489602e+06]
- [9.69850812e+06]
- [9.70172622e+06]
- [1.36302311e+07]
- [1.36367724e+07]
- [1.36417002e+07]
- [1.43861564e+07]
- [1.61766222e+07]
- [1.84428470e+07]
- [1.98051652e+07]
- [1.98050278e+07]
- [1.92989089e+04]]</t>
+          <t>[[1.08341243e+06]
+ [7.60834101e+06]
+ [2.03960943e+07]
+ [4.38317083e+06]
+ [4.38321525e+06]
+ [4.38326022e+06]
+ [4.38330602e+06]
+ [4.38335296e+06]
+ [4.38340138e+06]
+ [4.38411049e+06]
+ [4.38433526e+06]
+ [4.38458796e+06]
+ [4.38461157e+06]
+ [4.38429182e+06]
+ [4.38441173e+06]
+ [4.38365815e+06]
+ [4.38368614e+06]
+ [4.38371377e+06]
+ [1.15300625e+07]
+ [1.15341189e+07]
+ [1.15377358e+07]
+ [1.63374139e+07]
+ [1.63448449e+07]
+ [1.63504504e+07]
+ [1.73310354e+07]
+ [1.97177451e+07]
+ [2.28166926e+07]
+ [2.47254115e+07]
+ [2.47252386e+07]
+ [2.06210977e+04]]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -13102,34 +13109,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-6.09120398e+06]
- [-1.17097567e+07]
- [-1.07680797e+07]
- [-9.83371304e+06]
- [-8.90681564e+06]
- [-7.98762920e+06]
- [-7.07648192e+06]
- [-5.72925432e+06]
- [-3.96178478e+06]
- [-2.23772972e+06]
- [-6.93716943e+05]
+ [-5.86949346e+06]
+ [-1.12835395e+07]
+ [-1.03761381e+07]
+ [-9.47578091e+06]
+ [-8.58262116e+06]
+ [-7.69689170e+06]
+ [-6.81890879e+06]
+ [-5.52071821e+06]
+ [-3.81758186e+06]
+ [-2.15627978e+06]
+ [-6.68466707e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-9.78551546e+02]
- [-4.22556244e+03]
- [-4.75338513e+03]
- [-5.13801316e+03]
- [-7.74663642e+03]
- [-8.24489127e+03]
- [-8.66182953e+03]
- [-8.58341336e+03]
- [-8.00992605e+03]
- [-7.39261483e+03]
- [-7.11306770e+03]
- [-7.19770642e+03]
- [-7.27930418e+03]]</t>
+ [-9.42933765e+02]
+ [-5.41922906e+03]
+ [-6.09615482e+03]
+ [-6.58943528e+03]
+ [-1.00076969e+04]
+ [-1.06513806e+04]
+ [-1.11900133e+04]
+ [-1.10430381e+04]
+ [-1.02077547e+04]
+ [-9.31209984e+03]
+ [-8.89877508e+03]
+ [-9.00466201e+03]
+ [-9.10674456e+03]]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -13200,36 +13207,36 @@
       <c r="C495" t="inlineStr"/>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[[6.25112848e-02]
- [7.93655984e-02]
- [7.07673538e-01]
- [8.00168508e-01]
- [7.90682233e-01]
- [7.81213784e-01]
- [7.71765943e-01]
- [7.62341756e-01]
- [7.52944552e-01]
- [7.35309400e-01]
- [7.16727000e-01]
- [6.98338565e-01]
- [6.80132667e-01]
- [6.63560615e-01]
- [6.48525337e-01]
- [6.40997517e-01]
- [6.33462947e-01]
- [6.25923826e-01]
- [1.11512182e+00]
- [9.94629421e-01]
- [8.72944538e-01]
- [9.74015267e-01]
- [7.23168066e-01]
- [4.73263470e-01]
- [3.57613592e-01]
- [2.49737972e-01]
- [1.46998337e-01]
- [1.56797164e-01]
- [2.25167260e-01]
- [1.54689247e-04]]</t>
+          <t>[[5.49104920e-02]
+ [8.13641095e-02]
+ [6.21410842e-01]
+ [7.01860043e-01]
+ [6.93434986e-01]
+ [6.85032680e-01]
+ [6.76655705e-01]
+ [6.68306889e-01]
+ [6.59989338e-01]
+ [6.44491870e-01]
+ [6.28095157e-01]
+ [6.11904163e-01]
+ [5.95908157e-01]
+ [5.81503495e-01]
+ [5.68591771e-01]
+ [5.62130030e-01]
+ [5.55664402e-01]
+ [5.49196964e-01]
+ [1.29622567e+00]
+ [1.15681457e+00]
+ [1.01583578e+00]
+ [1.14415109e+00]
+ [8.50388484e-01]
+ [5.57269944e-01]
+ [4.25284398e-01]
+ [3.03752688e-01]
+ [1.82360376e-01]
+ [1.95740933e-01]
+ [2.81317041e-01]
+ [1.66669030e-04]]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -13248,36 +13255,36 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[0.06544549]
- [0.10052424]
- [0.32354471]
- [0.06638498]
- [0.06448306]
- [0.06269756]
- [0.06103338]
- [0.05949498]
- [0.0580861 ]
- [0.07239853]
- [0.06630873]
- [0.06110498]
- [0.05727048]
- [0.05541165]
- [0.05454266]
- [0.0496322 ]
- [0.04921066]
- [0.04879031]
- [0.20042474]
- [0.19558512]
- [0.19078496]
- [0.41139861]
- [0.40236972]
- [0.39335753]
- [0.33539353]
- [0.34450451]
- [0.35796681]
- [0.32582038]
- [0.32316869]
- [0.00051947]]</t>
+          <t>[[0.05824279]
+ [0.09060797]
+ [0.27511685]
+ [0.05803677]
+ [0.0561678 ]
+ [0.05441245]
+ [0.05277679]
+ [0.05126663]
+ [0.0498871 ]
+ [0.06169634]
+ [0.05632952]
+ [0.05179855]
+ [0.04853096]
+ [0.04692579]
+ [0.04608417]
+ [0.04190858]
+ [0.04150283]
+ [0.04109862]
+ [0.29299185]
+ [0.28711002]
+ [0.28124428]
+ [0.64613801]
+ [0.63424586]
+ [0.62232108]
+ [0.52611832]
+ [0.54026518]
+ [0.56152841]
+ [0.50494885]
+ [0.50162086]
+ [0.00082485]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -13296,36 +13303,36 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[3.64200825e-01]
- [5.44259999e-01]
- [1.67042491e+00]
- [1.85547807e+00]
- [1.83234921e+00]
- [1.80926529e+00]
- [1.78621032e+00]
- [1.76316822e+00]
- [1.74012263e+00]
- [1.69393588e+00]
- [1.64751806e+00]
- [1.60069958e+00]
- [1.55677896e+00]
- [1.51606451e+00]
- [1.47557932e+00]
- [1.45542772e+00]
- [1.43533502e+00]
- [1.41530156e+00]
- [2.80515497e+00]
- [2.48909703e+00]
- [2.18082566e+00]
- [2.70784881e+00]
- [2.07520864e+00]
- [1.47117787e+00]
- [1.27631973e+00]
- [1.18812740e+00]
- [9.61042318e-01]
- [9.47476876e-01]
- [1.44655902e+00]
- [5.09630759e-10]]</t>
+          <t>[[3.08798763e-01]
+ [4.90169251e-01]
+ [1.47411042e+00]
+ [1.63449296e+00]
+ [1.61413018e+00]
+ [1.59380257e+00]
+ [1.57349678e+00]
+ [1.55319936e+00]
+ [1.53289655e+00]
+ [1.49220300e+00]
+ [1.45130411e+00]
+ [1.41005519e+00]
+ [1.37122787e+00]
+ [1.33509299e+00]
+ [1.29915019e+00]
+ [1.28125506e+00]
+ [1.26340927e+00]
+ [1.24561311e+00]
+ [3.41243212e+00]
+ [3.03017321e+00]
+ [2.65640879e+00]
+ [3.36418096e+00]
+ [2.57174193e+00]
+ [1.81294258e+00]
+ [1.58831200e+00]
+ [1.52392371e+00]
+ [1.25519209e+00]
+ [1.24567294e+00]
+ [2.09417848e+00]
+ [5.77141671e-10]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -13348,8 +13355,8 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[193.89213296 228.37776098 251.93735203 270.25664581 291.24015985
+ 308.37640177 322.96500102 297.82001069 269.58744372 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -13469,8 +13476,8 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[193.89213296 228.37776098 251.93735203 270.25664581 291.24015985
+ 308.37640177 322.96500102 297.82001069 269.58744372 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -13659,8 +13666,8 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[-186.11554727 -219.76188204 -242.71624674 -260.54450967 -280.94779448
- -297.63929912 -311.85803003 -289.98410118 -265.41229165 -237.66700775
+          <t>[-193.89213296 -228.37776098 -251.93735203 -270.25664581 -291.24015985
+ -308.37640177 -322.96500102 -297.82001069 -269.58744372 -237.66700775
  -241.01750595 -244.23967215 -247.34415233]</t>
         </is>
       </c>
@@ -13709,18 +13716,18 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>[[ 2.54956261e+08]
- [ 2.29254329e+08]
- [ 2.03193049e+08]
- [ 2.31054930e+08]
- [ 1.76653500e+08]
- [ 1.21788082e+08]
- [ 9.74317519e+07]
- [ 7.52995554e+07]
- [ 4.08059202e+07]
- [ 6.96171030e+06]
- [-3.76408134e+06]
- [ 3.67633483e+07]]</t>
+          <t>[[ 2.98620722e+08]
+ [ 2.68620109e+08]
+ [ 2.38176860e+08]
+ [ 2.73344389e+08]
+ [ 2.09172716e+08]
+ [ 1.44363537e+08]
+ [ 1.16620668e+08]
+ [ 9.22010738e+07]
+ [ 5.17775800e+07]
+ [ 9.97898592e+06]
+ [-5.12045734e+06]
+ [ 4.58024208e+07]]</t>
         </is>
       </c>
       <c r="E513" t="inlineStr"/>
@@ -13743,18 +13750,18 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[[ 9686756.76706657]
- [ 9690475.14474645]
- [ 9693827.23099917]
- [13619250.38130389]
- [13626268.64349638]
- [13631714.06843605]
- [14380437.21990467]
- [16171163.01888337]
- [18437763.5786154 ]
- [19802045.60896311]
- [19802155.82085631]
- [19802023.99087446]]</t>
+          <t>[[11523136.92444319]
+ [11527344.10175682]
+ [11531139.43277074]
+ [16328390.4364075 ]
+ [16336420.71555719]
+ [16342658.92278485]
+ [17326687.28554506]
+ [19713709.42576842]
+ [22813122.55751106]
+ [24723372.40091464]
+ [24723516.80166383]
+ [24723355.60073324]]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13777,18 +13784,18 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>[[-4225.56243903]
- [-4753.38513481]
- [-5138.01315896]
- [-7746.63641764]
- [-8244.89127039]
- [-8661.82952753]
- [-8583.41336499]
- [-8009.92605495]
- [-7392.61483222]
- [-7113.06770454]
- [-7197.70642314]
- [-7279.30418072]]</t>
+          <t>[[ -5419.22905733]
+ [ -6096.15482317]
+ [ -6589.43527868]
+ [-10007.69691456]
+ [-10651.38060948]
+ [-11190.01331205]
+ [-11043.03814767]
+ [-10207.75470272]
+ [ -9312.09984009]
+ [ -8898.77507806]
+ [ -9004.66201054]
+ [ -9106.74456082]]</t>
         </is>
       </c>
       <c r="E515" t="inlineStr"/>
@@ -13841,18 +13848,18 @@
       <c r="C517" t="inlineStr"/>
       <c r="D517" t="inlineStr">
         <is>
-          <t>[[1.15534879]
- [1.03941351]
- [0.92192894]
- [1.0502183 ]
- [0.80589698]
- [0.56096658]
- [0.4547479 ]
- [0.36329426]
- [0.23431503]
- [0.15825299]
- [0.15601752]
- [0.22735725]]</t>
+          <t>[[1.35330978]
+ [1.21799437]
+ [1.08076837]
+ [1.24261258]
+ [0.95446287]
+ [0.66522903]
+ [0.54453287]
+ [0.44460149]
+ [0.2945286 ]
+ [0.19882311]
+ [0.19500861]
+ [0.28353907]]</t>
         </is>
       </c>
       <c r="E517" t="inlineStr"/>
@@ -13871,18 +13878,18 @@
       <c r="C518" t="inlineStr"/>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[[0.20033306]
- [0.19549206]
- [0.19069143]
- [0.41117174]
- [0.4021488 ]
- [0.39314407]
- [0.33529591]
- [0.34441821]
- [0.35789333]
- [0.32578359]
- [0.32313456]
- [0.32049721]]</t>
+          <t>[[0.29289179]
+ [0.287009  ]
+ [0.28114357]
+ [0.64588758]
+ [0.63400626]
+ [0.62209423]
+ [0.52601631]
+ [0.54017984]
+ [0.56146214]
+ [0.50491931]
+ [0.50159563]
+ [0.49827656]]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13901,18 +13908,18 @@
       <c r="C519" t="inlineStr"/>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[[3.25223421]
- [2.92460863]
- [2.59706245]
- [3.10104186]
- [2.42999054]
- [1.76588647]
- [1.53508721]
- [1.4009962 ]
- [1.07029836]
- [0.68295354]
- [0.52273287]
- [1.02940943]]</t>
+          <t>[[4.94554754]
+ [4.45097847]
+ [3.95578343]
+ [4.78377217]
+ [3.74978733]
+ [2.72421361]
+ [2.38796332]
+ [2.22465676]
+ [1.80510467]
+ [1.15343749]
+ [0.83198777]
+ [1.78756578]]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13935,7 +13942,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[0.15332577]</t>
+          <t>[0.14513227]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13958,7 +13965,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[0.15425397]</t>
+          <t>[0.14605964]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13981,7 +13988,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[0.15332577 0.15425397 0.6732804  0.91656242 1.03134349 2.38853667]</t>
+          <t>[0.14513227 0.14605964 0.62047085 0.8537833  0.96840917 2.37787   ]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -14000,12 +14007,12 @@
       <c r="C523" t="inlineStr"/>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[[ 1.19884572e+00 -1.88642676e-01  3.15006430e-01 -5.82639378e-01
-   2.57429907e-01]
- [-4.09204576e+02  5.59235649e+02 -4.02155507e+02  3.07281936e+02
-  -5.41575018e+01]
- [-9.98407395e+01  1.79620333e+02 -6.70557298e+01  1.89630609e+01
-  -3.06869247e+01]]</t>
+          <t>[[ 1.17090248e+00 -1.08003808e-01  1.54180600e-01 -4.22089614e-01
+   2.05010344e-01]
+ [ 2.90141738e+02 -3.89489298e+02  2.86807685e+02 -1.94930310e+02
+   8.47018546e+00]
+ [-1.10279037e+02  2.06816195e+02 -1.20455005e+02  8.38299010e+01
+  -5.89120534e+01]]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -14024,12 +14031,12 @@
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
-          <t>[[ 1.19231096e+00 -1.81310324e-01  3.10840409e-01 -5.81339546e-01
-   2.59498505e-01]
- [ 1.43910813e+02 -1.88460499e+02  1.32786688e+02 -9.55595359e+01
-   8.32253362e+00]
- [-9.22668709e+01  1.65114527e+02 -6.90876458e+01  2.99907030e+01
-  -3.27507134e+01]]</t>
+          <t>[[ 1.16411934e+00 -1.00624960e-01  1.50687706e-01 -4.22495926e-01
+   2.08313839e-01]
+ [ 6.99829007e+01 -8.93159226e+01  6.24813551e+01 -3.76129153e+01
+  -4.53541780e+00]
+ [-1.04150634e+02  1.94458866e+02 -1.19315400e+02  8.85594294e+01
+  -5.85522607e+01]]</t>
         </is>
       </c>
       <c r="E524" t="inlineStr"/>
@@ -14048,7 +14055,7 @@
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr">
         <is>
-          <t>[[  7.61431976 -25.92582183  43.13261976 -34.32347813  10.50236044]
+          <t>[[  7.29802601 -24.54489593  40.43363438 -31.85660768   9.66984321]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -14073,7 +14080,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>[0.15425397 1.03134349 2.46786916]</t>
+          <t>[0.14605964 0.96840917 2.44055077]</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
@@ -14096,7 +14103,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[0.15332577 0.91656242 2.38853667]</t>
+          <t>[0.14513227 0.8537833  2.37787   ]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -14119,7 +14126,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[4.46341445 0.         0.        ]</t>
+          <t>[4.11188777 0.         0.        ]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -14143,18 +14150,18 @@
       <c r="D529" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.03072383]
- [0.11701999]
- [0.25343297]
- [0.54212965]
- [0.93537526]
- [1.40989265]
- [1.72522238]
- [2.06109014]
- [2.41539918]
- [2.65889742]
- [2.90468679]
- [3.14919261]]</t>
+ [0.0347948 ]
+ [0.13240157]
+ [0.28668642]
+ [0.61391855]
+ [1.06056636]
+ [1.60014311]
+ [1.95911098]
+ [2.34230217]
+ [2.74798399]
+ [3.02758325]
+ [3.31013414]
+ [3.59113214]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -14177,7 +14184,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[3.14919261]</t>
+          <t>[3.59113214]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -14200,17 +14207,17 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[-15906768.01656574]
- [-14983143.10048426]
- [-14059260.05505754]
- [-13117956.67907294]
- [-12176317.89202569]
- [-11234399.6147994 ]
- [-10692773.72291411]
- [-10198366.94882873]
- [ -9751211.14539441]
- [ -9468851.22077098]
- [ -9186467.52414185]
+          <t>[[-14674587.77261103]
+ [-13904338.54715639]
+ [-13133824.25373622]
+ [-12354524.91087772]
+ [-11574880.88923787]
+ [-10794950.01147833]
+ [-10348298.26013962]
+ [ -9944435.20734622]
+ [ -9583397.55879915]
+ [ -9356975.49637406]
+ [ -9130529.66194339]
  [ -8904060.94535821]]</t>
         </is>
       </c>
@@ -14234,18 +14241,18 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[3788177.20632564]
- [3790184.65342486]
- [3791996.0547191 ]
- [3794509.56034207]
- [3797206.97961994]
- [3799305.4100125 ]
- [3794859.9212067 ]
- [3794644.18524507]
- [3794296.78115319]
- [3791772.1897011 ]
- [3791816.83207895]
- [3791792.38111495]]</t>
+          <t>[[3788115.38298406]
+ [3790007.66011352]
+ [3791716.33875344]
+ [3794050.96376849]
+ [3796602.52905408]
+ [3798589.99895553]
+ [3794383.09230362]
+ [3794129.01133294]
+ [3793751.27214281]
+ [3791399.52367747]
+ [3791445.69123513]
+ [3791422.03727118]]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -14268,18 +14275,18 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[22439.16043863]
- [22457.12730616]
- [22473.92025305]
- [22498.31733233]
- [22526.50837019]
- [22551.00615607]
- [22509.61938031]
- [22510.25224066]
- [22510.58247578]
- [22485.26243092]
- [22488.76372063]
- [22491.82110291]]</t>
+          <t>[[22438.63440708]
+ [22455.60017077]
+ [22471.46655865]
+ [22494.17997554]
+ [22520.87241874]
+ [22544.07816833]
+ [22504.83650248]
+ [22504.94125665]
+ [22504.83217967]
+ [22481.28658886]
+ [22484.80953963]
+ [22487.87868302]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -14302,18 +14309,18 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[-4540677.69331401]
- [-4241732.18084596]
- [-3936530.54693045]
- [-3489334.16277988]
- [-3030281.2484648 ]
- [-2563214.39643922]
- [-2280959.56349304]
- [-1996879.66951379]
- [-1710550.10160124]
- [-1518543.33837212]
- [-1325642.76280853]
- [-1132156.51858266]]</t>
+          <t>[[-4578189.05742069]
+ [-4278697.07800194]
+ [-3972553.49682252]
+ [-3523085.86855967]
+ [-3060511.67329768]
+ [-2588710.36219149]
+ [-2302978.79031409]
+ [-2014816.21615018]
+ [-1723548.90236436]
+ [-1527658.89984833]
+ [-1330406.34419098]
+ [-1132156.52169372]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14336,18 +14343,18 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>[[ 5.07328468e+08]
- [ 4.57531656e+08]
- [ 4.07063667e+08]
- [ 3.33830579e+08]
- [ 2.59494236e+08]
- [ 1.84538635e+08]
- [ 1.39487801e+08]
- [ 9.43903251e+07]
- [ 4.92708164e+07]
- [ 1.92254871e+07]
- [-1.07725602e+07]
- [-4.06893976e+07]]</t>
+          <t>[[ 5.10623784e+08]
+ [ 4.60767341e+08]
+ [ 4.10198036e+08]
+ [ 3.36725868e+08]
+ [ 2.62030053e+08]
+ [ 1.86606866e+08]
+ [ 1.41223670e+08]
+ [ 9.57522083e+07]
+ [ 5.02118350e+07]
+ [ 1.98614218e+07]
+ [-1.04530765e+07]
+ [-4.06893974e+07]]</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
@@ -14370,18 +14377,18 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>[[9738744.07396748]
- [9738623.6006555 ]
- [9738503.08357945]
- [9739124.80914926]
- [9738952.27334916]
- [9738779.68218638]
- [9738696.8621703 ]
- [9738788.74933498]
- [9738911.00098387]
- [9738933.4417317 ]
- [9738864.36480672]
- [9738795.28304613]]</t>
+          <t>[[9738966.46502071]
+ [9738845.90289701]
+ [9738725.28622752]
+ [9739459.49523458]
+ [9739286.7194713 ]
+ [9739113.87342443]
+ [9739055.68834861]
+ [9739206.85579466]
+ [9739406.19182348]
+ [9739476.09501583]
+ [9739406.90494467]
+ [9739337.70859248]]</t>
         </is>
       </c>
       <c r="E536" t="inlineStr"/>
@@ -14404,9 +14411,9 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[  3787067.18771687]
- [    22429.5465114 ]
- [-16830034.68412241]]</t>
+          <t>[[  3787067.18771482]
+ [    22429.54651136]
+ [-15444469.60660195]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14429,8 +14436,8 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[-4.83193657e+06]
- [ 5.56267263e+08]
+          <t>[[-4.86962970e+06]
+ [ 5.59583011e+08]
  [ 9.73654846e+06]]</t>
         </is>
       </c>
@@ -14454,7 +14461,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[1755649.82911878]</t>
+          <t>[1614245.19910967]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14477,7 +14484,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[-3.97723593e+00 -5.38032603e-02  1.20621235e+02]</t>
+          <t>[-4.32563379e+00 -5.85163176e-02  1.25280837e+02]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14500,7 +14507,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[3.05045220e+10 3.03987855e+10 2.64841923e+08 8.52611923e+02
+          <t>[2.95989082e+10 2.94931717e+10 2.63392002e+08 8.52611923e+02
  1.94199094e+07 1.70683998e+05]</t>
         </is>
       </c>
@@ -14520,8 +14527,8 @@
       <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
-          <t>[114.28571429 114.28571429 114.28571429 114.28571429 114.28571429
- 114.28571429]</t>
+          <t>[110.16228738 110.16228738 110.16228738 110.16228738 110.16228738
+ 110.16228738]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14660,7 +14667,10 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>[4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4.]</t>
+          <t>[4.13108578 4.13108578 4.13108578 4.13108578 4.13108578 4.13108578
+ 4.13108578 4.13108578 4.13108578 4.13108578 4.13108578 4.13108578
+ 4.13108578 4.13108578 4.13108578 4.13108578 4.13108578 4.13108578
+ 4.13108578]</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
@@ -14706,7 +14716,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[3267.25635973]</t>
+          <t>[3484.91070572]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14729,7 +14739,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>[32840788.90959796]</t>
+          <t>[35028539.0108673]</t>
         </is>
       </c>
       <c r="E552" t="inlineStr"/>
@@ -14771,7 +14781,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>[50.26548246]</t>
+          <t>[53.61401086]</t>
         </is>
       </c>
       <c r="E554" t="inlineStr"/>
@@ -14794,7 +14804,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>[201.06192983]</t>
+          <t>[228.74243076]</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
@@ -14817,7 +14827,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[201.06192983]</t>
+          <t>[228.74243076]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14840,8 +14850,8 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>[3.34893777e+06 3.34893777e+06 8.74666667e+04 1.17916472e+09
- 1.17916472e+09 0.00000000e+00]</t>
+          <t>[3.57203347e+06 3.57203347e+06 9.63507811e+04 1.25771697e+09
+ 1.25771697e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E557" t="inlineStr"/>
@@ -14913,7 +14923,10 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8.]</t>
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155]</t>
         </is>
       </c>
       <c r="E560" t="inlineStr"/>
@@ -15167,8 +15180,8 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[14554.57339244 14554.57339244 14554.57339244 14554.57339244
- 14554.57339244 14554.57339244]</t>
+          <t>[16099.90847346 16099.90847346 16099.90847346 16099.90847345
+ 16099.90847345 16099.90847345]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -15195,8 +15208,8 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>[114416.77621695 114416.77621695 114416.77621695 114416.77621695
- 114416.77621695 114416.77621695]</t>
+          <t>[134907.98168298 134907.98168288 134907.98168278 134907.98168271
+ 134907.98168265 134907.98168264]</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -15223,8 +15236,8 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>[114416.77621695 114416.77621695 114416.77621695 114416.77621695
- 114416.77621695 114416.77621695]</t>
+          <t>[134907.98168298 134907.98168288 134907.98168278 134907.98168271
+ 134907.98168265 134907.98168264]</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -15251,8 +15264,8 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>[2.74183504e+12 2.74183504e+12 2.74183504e+12 2.74183504e+12
- 2.74183504e+12 2.74183504e+12]</t>
+          <t>[3.23287759e+12 3.23287759e+12 3.23287759e+12 3.23287759e+12
+ 3.23287759e+12 3.23287759e+12]</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -15279,8 +15292,8 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>[2.74183504e+12 2.74183504e+12 2.74183504e+12 2.74183504e+12
- 2.74183504e+12 2.74183504e+12]</t>
+          <t>[3.23287759e+12 3.23287759e+12 3.23287759e+12 3.23287759e+12
+ 3.23287759e+12 3.23287759e+12]</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -15307,8 +15320,8 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>[2.17427519e+12 2.17427519e+12 2.17427519e+12 2.17427519e+12
- 2.17427519e+12 2.17427519e+12]</t>
+          <t>[2.56367193e+12 2.56367193e+12 2.56367193e+12 2.56367193e+12
+ 2.56367193e+12 2.56367193e+12]</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -15335,8 +15348,8 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>[3.48779616e+11 3.48779616e+11 3.48779616e+11 3.48779616e+11
- 3.48779616e+11 3.48779616e+11]</t>
+          <t>[3.8581137e+11 3.8581137e+11 3.8581137e+11 3.8581137e+11 3.8581137e+11
+ 3.8581137e+11]</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -15444,12 +15457,12 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.57342801 0.29177539 0.29177539 0.        ]
- [0.         0.         0.57342801 0.29177539 0.29177539 0.        ]
- [0.         0.         0.57342801 0.29177539 0.29177539 0.        ]
- [0.         0.         0.57342801 0.29177539 0.29177539 0.        ]
- [0.         0.         0.57342801 0.29177539 0.29177539 0.        ]
- [0.         0.         0.57342801 0.29177539 0.29177539 0.        ]]</t>
+          <t>[[0.         0.         0.51838804 0.2555671  0.2555671  0.        ]
+ [0.         0.         0.51838804 0.2555671  0.2555671  0.        ]
+ [0.         0.         0.51838804 0.2555671  0.2555671  0.        ]
+ [0.         0.         0.51838804 0.2555671  0.2555671  0.        ]
+ [0.         0.         0.51838804 0.2555671  0.2555671  0.        ]
+ [0.         0.         0.51838804 0.2555671  0.2555671  0.        ]]</t>
         </is>
       </c>
       <c r="E581" t="inlineStr"/>
@@ -15472,12 +15485,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[[0.94064421 0.94064421 0.         0.         0.         0.1458877 ]
- [0.94064421 0.94064421 0.         0.         0.         0.1458877 ]
- [0.94064421 0.94064421 0.         0.         0.         0.1458877 ]
- [0.94064421 0.94064421 0.         0.         0.         0.1458877 ]
- [0.94064421 0.94064421 0.         0.         0.         0.1458877 ]
- [0.94064421 0.94064421 0.         0.         0.         0.1458877 ]]</t>
+          <t>[[0.85022579 0.85022579 0.         0.         0.         0.12778355]
+ [0.85022579 0.85022579 0.         0.         0.         0.12778355]
+ [0.85022579 0.85022579 0.         0.         0.         0.12778355]
+ [0.85022579 0.85022579 0.         0.         0.         0.12778355]
+ [0.85022579 0.85022579 0.         0.         0.         0.12778355]
+ [0.85022579 0.85022579 0.         0.         0.         0.12778355]]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15500,7 +15513,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>[959.787433]</t>
+          <t>[998.30210337]</t>
         </is>
       </c>
       <c r="E583" t="inlineStr"/>
@@ -15523,7 +15536,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>[2877410.15457617]</t>
+          <t>[3158613.88405283]</t>
         </is>
       </c>
       <c r="E584" t="inlineStr"/>
@@ -15546,7 +15559,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>[1164365.87139489]</t>
+          <t>[1287992.67787672]</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -15592,7 +15605,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>[2.49313387e+09 2.49313387e+09 1.83066842e+07 0.00000000e+00
+          <t>[2.75851035e+09 2.75851035e+09 2.15852771e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -15616,7 +15629,9 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8.]</t>
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155]</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -15639,8 +15654,8 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>[0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749
- 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749]</t>
+          <t>[0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025
+ 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025]</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
@@ -15688,7 +15703,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>[1264365.87139489]</t>
+          <t>[1387992.67787672]</t>
         </is>
       </c>
       <c r="E591" t="inlineStr"/>
@@ -15696,7 +15711,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>fixedse.monopile_cost</t>
+          <t>fixedse.mono.grav_foundation_mass</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -15706,12 +15721,12 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>[3377410.15457617]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E592" t="inlineStr"/>
@@ -15719,7 +15734,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>fixedse.monopile_z_cg</t>
+          <t>fixedse.monopile_cost</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -15729,12 +15744,12 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[43.16364123]</t>
+          <t>[3658613.88405283]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr"/>
@@ -15742,7 +15757,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>fixedse.monopile_I_base</t>
+          <t>fixedse.monopile_z_cg</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -15752,13 +15767,12 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>kg*m**2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[3.13393387e+09 3.13393387e+09 1.99066842e+07 0.00000000e+00
- 0.00000000e+00 0.00000000e+00]</t>
+          <t>[42.88185958]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr"/>
@@ -15766,7 +15780,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>fixedse.structural_mass</t>
+          <t>fixedse.monopile_I_base</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -15776,12 +15790,13 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>kg*m**2</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[2068681.21709405]</t>
+          <t>[3.39936364e+09 3.39936364e+09 2.32918640e+07 0.00000000e+00
+ 0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr"/>
@@ -15789,7 +15804,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>fixedse.structural_cost</t>
+          <t>fixedse.structural_mass</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -15799,12 +15814,12 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[5639509.51632245]</t>
+          <t>[2050903.39356676]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr"/>
@@ -15812,7 +15827,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>fixedse.z_start</t>
+          <t>fixedse.structural_cost</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -15822,12 +15837,12 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[-65.]</t>
+          <t>[5621485.89359795]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr"/>
@@ -15835,7 +15850,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>fixedse.constr_diam_consistency</t>
+          <t>fixedse.z_start</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -15843,10 +15858,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C598" t="inlineStr"/>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[-65.]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr"/>
@@ -15854,7 +15873,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>fixedse.soil.z_k</t>
+          <t>fixedse.constr_diam_consistency</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -15862,14 +15881,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C599" t="inlineStr">
-        <is>
-          <t>N/m</t>
-        </is>
-      </c>
+      <c r="C599" t="inlineStr"/>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr"/>
@@ -15877,7 +15892,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>fixedse.soil.k</t>
+          <t>fixedse.soil.z_k</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -15892,26 +15907,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>[[3.08412632e+10 1.85063822e+13 3.08412632e+10 1.85063822e+13
-  1.88533333e+10 4.77866667e+10]
- [2.77288421e+10 1.30696533e+13 2.77288421e+10 1.30696533e+13
-  1.71733333e+10 4.77866667e+10]
- [2.46164211e+10 8.82759111e+12 2.46164211e+10 8.82759111e+12
-  1.54933333e+10 4.77866667e+10]
- [2.15040000e+10 5.63086222e+12 2.15040000e+10 5.63086222e+12
-  1.38133333e+10 4.77866667e+10]
- [1.83915789e+10 3.33013333e+12 1.83915789e+10 3.33013333e+12
-  1.21333333e+10 4.77866667e+10]
- [1.52791579e+10 1.77607111e+12 1.52791579e+10 1.77607111e+12
-  1.04533333e+10 4.77866667e+10]
- [1.21667368e+10 8.19342222e+11 1.21667368e+10 8.19342222e+11
-  8.77333333e+09 4.77866667e+10]
- [9.05431579e+09 3.10613333e+11 9.05431579e+09 3.10613333e+11
-  7.09333333e+09 4.77866667e+10]
- [5.94189474e+09 1.00551111e+11 5.94189474e+09 1.00551111e+11
-  5.41333333e+09 4.77866667e+10]
- [2.82947368e+09 3.98222222e+10 2.82947368e+09 3.98222222e+10
-  3.73333333e+09 4.77866667e+10]]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -15919,7 +15915,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>towerse.constr_d_to_t</t>
+          <t>fixedse.soil.k</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -15927,10 +15923,33 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr"/>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>N/m</t>
+        </is>
+      </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>[227.53178553 320.         280.         240.        ]</t>
+          <t>[[3.09339891e+10 1.85319150e+13 3.09339891e+10 1.85319150e+13
+  1.89756801e+10 5.26404268e+10]
+ [2.78215680e+10 1.30927985e+13 2.78215680e+10 1.30927985e+13
+  1.72956801e+10 5.26404268e+10]
+ [2.47091470e+10 8.84834875e+12 2.47091470e+10 8.84834875e+12
+  1.56156801e+10 5.26404268e+10]
+ [2.15967259e+10 5.64923231e+12 2.15967259e+10 5.64923231e+12
+  1.39356801e+10 5.26404268e+10]
+ [1.84843049e+10 3.34611587e+12 1.84843049e+10 3.34611587e+12
+  1.22556801e+10 5.26404268e+10]
+ [1.53718838e+10 1.78966610e+12 1.53718838e+10 1.78966610e+12
+  1.05756801e+10 5.26404268e+10]
+ [1.22594628e+10 8.30549667e+11 1.22594628e+10 8.30549667e+11
+  8.89568006e+09 5.26404268e+10]
+ [9.14704173e+09 3.19433230e+11 9.14704173e+09 3.19433230e+11
+  7.21568006e+09 5.26404268e+10]
+ [6.03462068e+09 1.06983459e+11 6.03462068e+09 1.06983459e+11
+  5.53568006e+09 5.26404268e+10]
+ [2.92219962e+09 4.38670223e+10 2.92219962e+09 4.38670223e+10
+  3.85568006e+09 5.26404268e+10]]</t>
         </is>
       </c>
       <c r="E601" t="inlineStr"/>
@@ -15938,7 +15957,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>towerse.constr_taper</t>
+          <t>towerse.constr_d_to_t</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -15949,7 +15968,7 @@
       <c r="C602" t="inlineStr"/>
       <c r="D602" t="inlineStr">
         <is>
-          <t>[1.   1.   0.75 1.  ]</t>
+          <t>[291.52407869 413.10857766 356.55428883 300.        ]</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
@@ -15957,7 +15976,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>towerse.slope</t>
+          <t>towerse.constr_taper</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -15968,7 +15987,7 @@
       <c r="C603" t="inlineStr"/>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[1.   1.   0.75 1.  ]</t>
+          <t>[1.         1.         0.72620133 1.        ]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15976,7 +15995,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>towerse.thickness_slope</t>
+          <t>towerse.slope</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -15987,7 +16006,7 @@
       <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[0.71103683 1.         1.        ]</t>
+          <t>[1.         1.         0.72620133 1.        ]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15995,7 +16014,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>towerse.member.ca_usr_grid_full</t>
+          <t>towerse.thickness_slope</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -16006,7 +16025,7 @@
       <c r="C605" t="inlineStr"/>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+          <t>[0.70568392 1.         1.        ]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -16014,7 +16033,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>towerse.member.cd_usr_grid_full</t>
+          <t>towerse.member.ca_usr_grid_full</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -16033,7 +16052,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>towerse.member.nu_full</t>
+          <t>towerse.member.cd_usr_grid_full</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -16044,41 +16063,35 @@
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr">
         <is>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>towerse.member.nu_full</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr">
+        <is>
           <t>[0.26103405 0.26103405 0.26103405 0.26103405 0.26103405 0.26103405
  0.26103405 0.26103405 0.26103405 0.26103405 0.26103405 0.26103405]</t>
         </is>
       </c>
-      <c r="E607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>towerse.member.nodes_r</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>[4.         4.         4.         4.         4.         4.
- 4.         3.66666667 3.33333333 3.         3.         3.
- 3.        ]</t>
-        </is>
-      </c>
       <c r="E608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>towerse.member.center_of_buoyancy</t>
+          <t>towerse.member.nodes_r</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -16093,7 +16106,9 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>[0. 0. 0.]</t>
+          <t>[4.13108578 4.13108578 4.13108578 4.13108578 4.13108578 4.13108578
+ 4.13108578 3.75405718 3.37702859 3.         3.         3.
+ 3.        ]</t>
         </is>
       </c>
       <c r="E609" t="inlineStr"/>
@@ -16101,7 +16116,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>towerse.member.displacement</t>
+          <t>towerse.member.center_of_buoyancy</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -16111,12 +16126,12 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>m**3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[0. 0. 0.]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16124,7 +16139,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>towerse.member.buoyancy_force</t>
+          <t>towerse.member.displacement</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -16134,7 +16149,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>m**3</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -16147,7 +16162,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>towerse.member.idx_cb</t>
+          <t>towerse.member.buoyancy_force</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -16155,7 +16170,11 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C612" t="inlineStr"/>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D612" t="inlineStr">
         <is>
           <t>[0.]</t>
@@ -16166,7 +16185,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>towerse.member.Awater</t>
+          <t>towerse.member.idx_cb</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -16174,11 +16193,7 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>m**2</t>
-        </is>
-      </c>
+      <c r="C613" t="inlineStr"/>
       <c r="D613" t="inlineStr">
         <is>
           <t>[0.]</t>
@@ -16189,7 +16204,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>towerse.member.Iwaterx</t>
+          <t>towerse.member.Awater</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -16199,7 +16214,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>m**4</t>
+          <t>m**2</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -16212,7 +16227,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>towerse.member.Iwatery</t>
+          <t>towerse.member.Iwaterx</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -16235,7 +16250,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>towerse.member.added_mass</t>
+          <t>towerse.member.Iwatery</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -16245,12 +16260,12 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>m**4</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0. 0.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16258,7 +16273,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>towerse.member.waterline_centroid</t>
+          <t>towerse.member.added_mass</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -16268,12 +16283,12 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E617" t="inlineStr"/>
@@ -16281,57 +16296,55 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
+          <t>towerse.member.waterline_centroid</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>[0. 0.]</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
           <t>towerse.member.z_dim</t>
         </is>
       </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr">
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D618" t="inlineStr">
+      <c r="D619" t="inlineStr">
         <is>
           <t>[ 15.          27.78666667  40.57333333  53.36        71.62666667
   89.89333333 108.16       119.12       130.08       141.04
  148.34666667 155.65333333 162.96      ]</t>
         </is>
       </c>
-      <c r="E618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>towerse.member.d_eff</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
- 6.        ]</t>
-        </is>
-      </c>
       <c r="E619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>towerse.tower_section_height</t>
+          <t>towerse.member.d_eff</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -16346,7 +16359,9 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>[38.36 54.8  32.88 21.92]</t>
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155 7.50811437 6.75405718 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E620" t="inlineStr"/>
@@ -16354,7 +16369,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>towerse.member.sigma_ult</t>
+          <t>towerse.tower_section_height</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -16364,12 +16379,12 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[4.5e+08 4.5e+08 4.5e+08 4.5e+08]</t>
+          <t>[38.36 54.8  32.88 21.92]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16377,7 +16392,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>towerse.member.wohler_exp</t>
+          <t>towerse.member.sigma_ult</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -16385,10 +16400,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C622" t="inlineStr"/>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 3.]</t>
+          <t>[4.5e+08 4.5e+08 4.5e+08 4.5e+08]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16396,7 +16415,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>towerse.member.wohler_A</t>
+          <t>towerse.member.wohler_exp</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -16407,7 +16426,7 @@
       <c r="C623" t="inlineStr"/>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[3.55346484e+10 3.55346484e+10 3.55346484e+10 3.55346484e+10]</t>
+          <t>[3. 3. 3. 3.]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16415,7 +16434,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>towerse.member.ballast_density</t>
+          <t>towerse.member.wohler_A</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -16423,14 +16442,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C624" t="inlineStr">
-        <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
+      <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[3.55346484e+10 3.55346484e+10 3.55346484e+10 3.55346484e+10]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16438,7 +16453,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>towerse.member.ballast_unit_cost</t>
+          <t>towerse.member.ballast_density</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -16448,7 +16463,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -16461,7 +16476,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>towerse.z_param</t>
+          <t>towerse.member.ballast_unit_cost</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -16471,12 +16486,12 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[ 15.    53.36 108.16 141.04 162.96]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
@@ -16484,7 +16499,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>towerse.member.sec_loc</t>
+          <t>towerse.z_param</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -16492,22 +16507,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C627" t="inlineStr"/>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.         0.39534884 0.76744186 1.        ]</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>normalized sectional location</t>
-        </is>
-      </c>
+          <t>[ 15.    53.36 108.16 141.04 162.96]</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>towerse.member.str_tw</t>
+          <t>towerse.member.sec_loc</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -16515,26 +16530,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C628" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
+      <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[0.         0.39534884 0.76744186 1.        ]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>structural twist of section</t>
+          <t>normalized sectional location</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>towerse.member.tw_iner</t>
+          <t>towerse.member.str_tw</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -16554,14 +16565,14 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>inertial twist of section</t>
+          <t>structural twist of section</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>towerse.member.mass_den</t>
+          <t>towerse.member.tw_iner</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -16571,24 +16582,24 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>kg/m</t>
+          <t>deg</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>[7342.6567299  5227.55912469 4572.06581752 3916.57251035]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>sectional mass per unit length</t>
+          <t>inertial twist of section</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>towerse.member.foreaft_iner</t>
+          <t>towerse.member.mass_den</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -16598,24 +16609,24 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>kg*m</t>
+          <t>kg/m</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[58227.18863764 41559.91184742 27804.58963809 17478.31679189]</t>
+          <t>[6118.57008842 4322.15063177 3729.01530664 3135.87998151]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>sectional fore-aft intertia per unit length about the Y_G inertia axis</t>
+          <t>sectional mass per unit length</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>towerse.member.sideside_iner</t>
+          <t>towerse.member.foreaft_iner</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -16630,19 +16641,19 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[58227.18863764 41559.91184742 27804.58963809 17478.31679189]</t>
+          <t>[51852.40642953 36702.51020461 23571.07821568 14017.69710534]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>sectional side-side intertia per unit length about the Y_G inertia axis</t>
+          <t>sectional fore-aft intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>towerse.member.foreaft_stff</t>
+          <t>towerse.member.sideside_iner</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -16652,24 +16663,24 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>N*m**2</t>
+          <t>kg*m</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[1.39533162e+12 9.95924080e+11 6.66297379e+11 4.18842962e+11]</t>
+          <t>[51852.40642953 36702.51020461 23571.07821568 14017.69710534]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>sectional fore-aft bending stiffness per unit length about the Y_E elastic axis</t>
+          <t>sectional side-side intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>towerse.member.sideside_stff</t>
+          <t>towerse.member.foreaft_stff</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -16684,19 +16695,19 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[1.39533162e+12 9.95924080e+11 6.66297379e+11 4.18842962e+11]</t>
+          <t>[1.24256905e+12 8.79523369e+11 5.64847309e+11 3.35914141e+11]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>sectional side-side bending stiffness per unit length about the Y_E elastic axis</t>
+          <t>sectional fore-aft bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>towerse.member.tor_stff</t>
+          <t>towerse.member.sideside_stff</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -16711,19 +16722,19 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[1.10649798e+12 7.89767795e+11 5.28373822e+11 3.32142469e+11]</t>
+          <t>[1.24256905e+12 8.79523369e+11 5.64847309e+11 3.35914141e+11]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>sectional torsional stiffness</t>
+          <t>sectional side-side bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>towerse.member.axial_stff</t>
+          <t>towerse.member.tor_stff</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -16733,24 +16744,24 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>N*m**2</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[1.75956308e+11 1.25271007e+11 1.09563044e+11 9.38550805e+10]</t>
+          <t>[9.85357256e+11 6.97462032e+11 4.47923916e+11 2.66379914e+11]</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>sectional axial stiffness</t>
+          <t>sectional torsional stiffness</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>towerse.member.cg_offst</t>
+          <t>towerse.member.axial_stff</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -16760,24 +16771,24 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[1.46622815e+11 1.03574182e+11 8.93605393e+10 7.51468963e+10]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>offset from the sectional center of mass</t>
+          <t>sectional axial stiffness</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>towerse.member.sc_offst</t>
+          <t>towerse.member.cg_offst</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -16797,14 +16808,14 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>offset from the sectional shear center</t>
+          <t>offset from the sectional center of mass</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>towerse.member.tc_offst</t>
+          <t>towerse.member.sc_offst</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -16824,14 +16835,14 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>offset from the sectional tension center</t>
+          <t>offset from the sectional shear center</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>towerse.member.axial_load2stress</t>
+          <t>towerse.member.tc_offst</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -16841,23 +16852,24 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>m**2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[[0.         0.         1.13664581 0.57334041 0.57334041 0.        ]
- [0.         0.         1.59653861 0.80327408 0.80327408 0.        ]
- [0.         0.         1.82543304 1.05058195 1.05058195 0.        ]
- [0.         0.         2.13094484 1.4325178  1.4325178  0.        ]]</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr"/>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>offset from the sectional tension center</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>towerse.member.shear_load2stress</t>
+          <t>towerse.member.axial_load2stress</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -16872,10 +16884,10 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[[1.86830396 1.86830396 0.         0.         0.         0.2866702 ]
- [2.62573607 2.62573607 0.         0.         0.         0.40163704]
- [3.00158224 3.00158224 0.         0.         0.         0.52529097]
- [3.50299574 3.50299574 0.         0.         0.         0.7162589 ]]</t>
+          <t>[[0.         0.         1.36404419 0.66492655 0.66492655 0.        ]
+ [0.         0.         1.93098314 0.93939193 0.93939193 0.        ]
+ [0.         0.         2.23812436 1.26248026 1.26248026 0.        ]
+ [0.         0.         2.6614539  1.78617071 1.78617071 0.        ]]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16883,7 +16895,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>towerse.member.labor_hours</t>
+          <t>towerse.member.shear_load2stress</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -16893,12 +16905,15 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m**2</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[517.10780348]</t>
+          <t>[[2.24305761 2.24305761 0.         0.         0.         0.33246328]
+ [3.17678012 3.17678012 0.         0.         0.         0.46969596]
+ [3.68144482 3.68144482 0.         0.         0.         0.63124013]
+ [4.37673138 4.37673138 0.         0.         0.         0.89308536]]</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
@@ -16906,7 +16921,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>towerse.tower_cost</t>
+          <t>towerse.member.labor_hours</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -16916,12 +16931,12 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>h</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>[2262099.36174629]</t>
+          <t>[471.23252106]</t>
         </is>
       </c>
       <c r="E643" t="inlineStr"/>
@@ -16929,7 +16944,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>towerse.member.section_D</t>
+          <t>towerse.tower_cost</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -16939,13 +16954,12 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 7.66666667 7.         6.33333333 6.         6.         6.        ]</t>
+          <t>[1962872.00954513]</t>
         </is>
       </c>
       <c r="E644" t="inlineStr"/>
@@ -16953,7 +16967,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>towerse.member.section_t</t>
+          <t>towerse.member.section_D</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -16968,8 +16982,8 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>[0.03762112 0.03762112 0.03762112 0.02675    0.02675    0.02675
- 0.02675    0.02675    0.02675    0.02675    0.02675    0.02675   ]</t>
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 7.88514296 7.13108578 6.37702859 6.         6.         6.        ]</t>
         </is>
       </c>
       <c r="E645" t="inlineStr"/>
@@ -16977,54 +16991,55 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
+          <t>towerse.member.section_t</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>[0.03032519 0.03032519 0.03032519 0.0214     0.0214     0.0214
+ 0.0214     0.0214     0.0214     0.0214     0.0214     0.0214    ]</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
           <t>towerse.member.section_sigma_y</t>
         </is>
       </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C646" t="inlineStr">
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D646" t="inlineStr">
+      <c r="D647" t="inlineStr">
         <is>
           <t>[3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08
  3.45e+08 3.45e+08 3.45e+08 3.45e+08]</t>
         </is>
       </c>
-      <c r="E646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>towerse.height_constraint</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C647" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D647" t="inlineStr">
-        <is>
-          <t>[0.]</t>
-        </is>
-      </c>
       <c r="E647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>towerse.transition_piece_height</t>
+          <t>towerse.height_constraint</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -17039,7 +17054,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>[15.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E648" t="inlineStr"/>
@@ -17047,7 +17062,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>towerse.z_start</t>
+          <t>towerse.transition_piece_height</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -17070,7 +17085,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>airfoils.ac</t>
+          <t>towerse.z_start</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -17078,22 +17093,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C650" t="inlineStr"/>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>[0.275 0.5   0.275 0.275 0.275 0.275 0.275]</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>1D array of the aerodynamic centers of each airfoil.</t>
-        </is>
-      </c>
+          <t>[15.]</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>airfoils.r_thick</t>
+          <t>airfoils.ac</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -17104,32 +17119,55 @@
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>[0.4  1.   0.3  0.21 0.25 0.35 0.17]</t>
+          <t>[0.275 0.5   0.275 0.275 0.275 0.275 0.275]</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>1D array of the relative thicknesses of each airfoil.</t>
+          <t>1D array of the aerodynamic centers of each airfoil.</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
+          <t>airfoils.r_thick</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>[0.4  1.   0.3  0.21 0.25 0.35 0.17]</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>1D array of the relative thicknesses of each airfoil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
           <t>airfoils.aoa</t>
         </is>
       </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C652" t="inlineStr">
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
         <is>
           <t>rad</t>
         </is>
       </c>
-      <c r="D652" t="inlineStr">
+      <c r="D653" t="inlineStr">
         <is>
           <t>[-3.14159265 -3.08923278 -3.0368729  -2.98451302 -2.93215314 -2.87979327
  -2.82743339 -2.77507351 -2.72271363 -2.67035376 -2.61799388 -2.565634
@@ -17167,39 +17205,16 @@
   3.08923278  3.14159265]</t>
         </is>
       </c>
-      <c r="E652" t="inlineStr">
+      <c r="E653" t="inlineStr">
         <is>
           <t>1D array of the angles of attack used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>airfoils.Re</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C653" t="inlineStr"/>
-      <c r="D653" t="inlineStr">
-        <is>
-          <t>[1000000.]</t>
-        </is>
-      </c>
-      <c r="E653" t="inlineStr">
-        <is>
-          <t>1D array of the Reynolds numbers used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>airfoils.cl</t>
+          <t>airfoils.Re</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -17209,6 +17224,29 @@
       </c>
       <c r="C654" t="inlineStr"/>
       <c r="D654" t="inlineStr">
+        <is>
+          <t>[1000000.]</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>1D array of the Reynolds numbers used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>airfoils.cl</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr">
         <is>
           <t>[[[[ 1.27742998e-02]]
   [[ 1.42693272e-01]]
@@ -17255,25 +17293,25 @@
   [[ 1.53642952e-08]]]]</t>
         </is>
       </c>
-      <c r="E654" t="inlineStr">
+      <c r="E655" t="inlineStr">
         <is>
           <t>4D array with the lift coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
+    <row r="656">
+      <c r="A656" t="inlineStr">
         <is>
           <t>airfoils.cd</t>
         </is>
       </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C655" t="inlineStr"/>
-      <c r="D655" t="inlineStr">
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
         <is>
           <t>[[[[0.06162547]]
   [[0.06296798]]
@@ -17320,25 +17358,25 @@
   [[0.0198    ]]]]</t>
         </is>
       </c>
-      <c r="E655" t="inlineStr">
+      <c r="E656" t="inlineStr">
         <is>
           <t>4D array with the drag coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
+    <row r="657">
+      <c r="A657" t="inlineStr">
         <is>
           <t>airfoils.cm</t>
         </is>
       </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr">
         <is>
           <t>[[[[ 3.70854259e-04]]
   [[ 5.78906867e-02]]
@@ -17385,25 +17423,25 @@
   [[ 7.70271560e-09]]]]</t>
         </is>
       </c>
-      <c r="E656" t="inlineStr">
+      <c r="E657" t="inlineStr">
         <is>
           <t>4D array with the moment coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
+    <row r="658">
+      <c r="A658" t="inlineStr">
         <is>
           <t>airfoils.coord_xy</t>
         </is>
       </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
         <is>
           <t>[[[ 1.00000000e+00 -3.47000010e-03]
   [ 9.82059782e-01  4.47998271e-04]
@@ -17450,43 +17488,16 @@
   [ 1.00000000e+00  1.56966672e-03]]]</t>
         </is>
       </c>
-      <c r="E657" t="inlineStr">
+      <c r="E658" t="inlineStr">
         <is>
           <t>3D array of the x and y airfoil coordinates of the n_af airfoils.</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>airfoils.name</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>['DU40_A17', 'Cylinder', 'DU30_A17', 'DU21_A17', 'DU25_A17', 'DU35_A17', 'DU17_A17']</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>1D array of names of airfoils.</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>configuration.rated_power</t>
+          <t>airfoils.name</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -17496,24 +17507,24 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Unavailable</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>[15000000.]</t>
+          <t>['DU40_A17', 'Cylinder', 'DU30_A17', 'DU21_A17', 'DU25_A17', 'DU35_A17', 'DU17_A17']</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Electrical rated power of the generator.</t>
+          <t>1D array of names of airfoils.</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>configuration.lifetime</t>
+          <t>configuration.rated_power</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -17523,24 +17534,24 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>[25.]</t>
+          <t>[15000000.]</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Turbine design lifetime.</t>
+          <t>Electrical rated power of the generator.</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>configuration.rotor_diameter_user</t>
+          <t>configuration.lifetime</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -17550,24 +17561,24 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>year</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>[250.]</t>
+          <t>[25.]</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>Diameter of the rotor specified by the user. It is defined as two times the blade length plus the hub diameter.</t>
+          <t>Turbine design lifetime.</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>configuration.hub_height_user</t>
+          <t>configuration.rotor_diameter_user</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -17582,19 +17593,19 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>[162.96]</t>
+          <t>[250.]</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>Height of the hub center over the ground (land-based) or the mean sea level (offshore) specified by the user.</t>
+          <t>Diameter of the rotor specified by the user. It is defined as two times the blade length plus the hub diameter.</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>configuration.ws_class</t>
+          <t>configuration.hub_height_user</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -17604,24 +17615,24 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>[162.96]</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>IEC wind turbine class. I - offshore, II coastal, III - land-based, IV - low wind speed site.</t>
+          <t>Height of the hub center over the ground (land-based) or the mean sea level (offshore) specified by the user.</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>configuration.turb_class</t>
+          <t>configuration.ws_class</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -17636,19 +17647,19 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>IEC wind turbine category. A - high turbulence intensity (land-based), B - mid turbulence, C - low turbulence (offshore).</t>
+          <t>IEC wind turbine class. I - offshore, II coastal, III - land-based, IV - low wind speed site.</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>configuration.gearbox_type</t>
+          <t>configuration.turb_class</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -17663,19 +17674,19 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>direct_drive</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>Gearbox configuration (geared, direct-drive, etc.).</t>
+          <t>IEC wind turbine category. A - high turbulence intensity (land-based), B - mid turbulence, C - low turbulence (offshore).</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>configuration.rotor_orientation</t>
+          <t>configuration.gearbox_type</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17690,19 +17701,19 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>upwind</t>
+          <t>direct_drive</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>Rotor orientation, either upwind or downwind.</t>
+          <t>Gearbox configuration (geared, direct-drive, etc.).</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>configuration.upwind</t>
+          <t>configuration.rotor_orientation</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17715,19 +17726,21 @@
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="D667" t="b">
-        <v>1</v>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>upwind</t>
+        </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>Convenient boolean for upwind (True) or downwind (False).</t>
+          <t>Rotor orientation, either upwind or downwind.</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>configuration.n_blades</t>
+          <t>configuration.upwind</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17740,19 +17753,19 @@
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="D668" t="n">
-        <v>3</v>
+      <c r="D668" t="b">
+        <v>1</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>Number of blades of the rotor.</t>
+          <t>Convenient boolean for upwind (True) or downwind (False).</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>control.V_in</t>
+          <t>configuration.n_blades</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17762,24 +17775,22 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>m/s</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>[3.]</t>
-        </is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>3</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>Cut in wind speed. This is the wind speed where region II begins.</t>
+          <t>Number of blades of the rotor.</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>control.V_out</t>
+          <t>control.V_in</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17794,19 +17805,19 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>[25.]</t>
+          <t>[3.]</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>Cut out wind speed. This is the wind speed where region III ends.</t>
+          <t>Cut in wind speed. This is the wind speed where region II begins.</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>control.minOmega</t>
+          <t>control.V_out</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17816,24 +17827,24 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>rad/s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>[0.52359878]</t>
+          <t>[25.]</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>Minimum allowed rotor speed.</t>
+          <t>Cut out wind speed. This is the wind speed where region III ends.</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>control.maxOmega</t>
+          <t>control.minOmega</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17848,19 +17859,19 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>[0.79168135]</t>
+          <t>[0.52359878]</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Maximum allowed rotor speed.</t>
+          <t>Minimum allowed rotor speed.</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>control.max_TS</t>
+          <t>control.maxOmega</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17870,24 +17881,24 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>m/s</t>
+          <t>rad/s</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>[95.]</t>
+          <t>[0.79168135]</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>Maximum allowed blade tip speed.</t>
+          <t>Maximum allowed rotor speed.</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>control.max_pitch_rate</t>
+          <t>control.max_TS</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17897,24 +17908,24 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>rad/s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>[0.03490659]</t>
+          <t>[95.]</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>Maximum allowed blade pitch rate</t>
+          <t>Maximum allowed blade tip speed.</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>control.max_torque_rate</t>
+          <t>control.max_pitch_rate</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17924,24 +17935,24 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>N*m/s</t>
+          <t>rad/s</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>[1500000.]</t>
+          <t>[0.03490659]</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Maximum allowed generator torque rate</t>
+          <t>Maximum allowed blade pitch rate</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>control.rated_TSR</t>
+          <t>control.max_torque_rate</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17949,22 +17960,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C676" t="inlineStr"/>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>N*m/s</t>
+        </is>
+      </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>[9.]</t>
+          <t>[1500000.]</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Constant tip speed ratio in region II.</t>
+          <t>Maximum allowed generator torque rate</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>control.rated_pitch</t>
+          <t>control.rated_TSR</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17972,26 +17987,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[9.]</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Constant pitch angle in region II.</t>
+          <t>Constant tip speed ratio in region II.</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>costs.offset_tcc_per_kW</t>
+          <t>control.rated_pitch</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -18001,7 +18012,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>rad</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -18011,14 +18022,14 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>Offset to turbine capital cost</t>
+          <t>Constant pitch angle in region II.</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>costs.bos_per_kW</t>
+          <t>costs.offset_tcc_per_kW</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -18033,19 +18044,19 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>[4053.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>Balance of station/plant capital cost</t>
+          <t>Offset to turbine capital cost</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>costs.opex_per_kW</t>
+          <t>costs.bos_per_kW</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -18055,24 +18066,24 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>USD/kW/year</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>[137.]</t>
+          <t>[4053.]</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>Average annual operational expenditures of the turbine</t>
+          <t>Balance of station/plant capital cost</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>costs.wake_loss_factor</t>
+          <t>costs.opex_per_kW</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -18080,22 +18091,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C681" t="inlineStr"/>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>USD/kW/year</t>
+        </is>
+      </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>[0.15]</t>
+          <t>[137.]</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>The losses in AEP due to waked conditions</t>
+          <t>Average annual operational expenditures of the turbine</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>costs.fixed_charge_rate</t>
+          <t>costs.wake_loss_factor</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -18106,19 +18121,19 @@
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr">
         <is>
-          <t>[0.056]</t>
+          <t>[0.15]</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>Fixed charge rate for coe calculation</t>
+          <t>The losses in AEP due to waked conditions</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>costs.labor_rate</t>
+          <t>costs.fixed_charge_rate</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -18126,22 +18141,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>USD/h</t>
-        </is>
-      </c>
+      <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr">
         <is>
-          <t>[58.8]</t>
-        </is>
-      </c>
-      <c r="E683" t="inlineStr"/>
+          <t>[0.056]</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>Fixed charge rate for coe calculation</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>costs.painting_rate</t>
+          <t>costs.labor_rate</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -18151,12 +18166,12 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>USD/m**2</t>
+          <t>USD/h</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[58.8]</t>
         </is>
       </c>
       <c r="E684" t="inlineStr"/>
@@ -18164,7 +18179,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>costs.blade_mass_cost_coeff</t>
+          <t>costs.painting_rate</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -18174,12 +18189,12 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/m**2</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>[14.6]</t>
+          <t>[30.]</t>
         </is>
       </c>
       <c r="E685" t="inlineStr"/>
@@ -18187,7 +18202,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>costs.hub_mass_cost_coeff</t>
+          <t>costs.blade_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -18202,7 +18217,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>[3.9]</t>
+          <t>[14.6]</t>
         </is>
       </c>
       <c r="E686" t="inlineStr"/>
@@ -18210,7 +18225,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>costs.pitch_system_mass_cost_coeff</t>
+          <t>costs.hub_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -18225,7 +18240,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>[22.1]</t>
+          <t>[3.9]</t>
         </is>
       </c>
       <c r="E687" t="inlineStr"/>
@@ -18233,7 +18248,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>costs.spinner_mass_cost_coeff</t>
+          <t>costs.pitch_system_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -18248,7 +18263,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>[11.1]</t>
+          <t>[22.1]</t>
         </is>
       </c>
       <c r="E688" t="inlineStr"/>
@@ -18256,7 +18271,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>costs.lss_mass_cost_coeff</t>
+          <t>costs.spinner_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -18271,7 +18286,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>[11.9]</t>
+          <t>[11.1]</t>
         </is>
       </c>
       <c r="E689" t="inlineStr"/>
@@ -18279,7 +18294,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>costs.bearing_mass_cost_coeff</t>
+          <t>costs.lss_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -18294,7 +18309,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>[4.5]</t>
+          <t>[11.9]</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -18302,7 +18317,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>costs.gearbox_torque_cost</t>
+          <t>costs.bearing_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -18312,12 +18327,12 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>USD/kN/m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>[50.]</t>
+          <t>[4.5]</t>
         </is>
       </c>
       <c r="E691" t="inlineStr"/>
@@ -18325,7 +18340,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>costs.hss_mass_cost_coeff</t>
+          <t>costs.gearbox_torque_cost</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -18335,12 +18350,12 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/kN/m</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>[6.8]</t>
+          <t>[50.]</t>
         </is>
       </c>
       <c r="E692" t="inlineStr"/>
@@ -18348,7 +18363,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>costs.generator_mass_cost_coeff</t>
+          <t>costs.hss_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -18363,7 +18378,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>[12.4]</t>
+          <t>[6.8]</t>
         </is>
       </c>
       <c r="E693" t="inlineStr"/>
@@ -18371,7 +18386,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>costs.bedplate_mass_cost_coeff</t>
+          <t>costs.generator_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -18386,7 +18401,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[12.4]</t>
         </is>
       </c>
       <c r="E694" t="inlineStr"/>
@@ -18394,7 +18409,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>costs.yaw_mass_cost_coeff</t>
+          <t>costs.bedplate_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -18409,7 +18424,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[8.3]</t>
+          <t>[2.9]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -18417,7 +18432,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>costs.converter_mass_cost_coeff</t>
+          <t>costs.yaw_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -18432,7 +18447,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>[18.8]</t>
+          <t>[8.3]</t>
         </is>
       </c>
       <c r="E696" t="inlineStr"/>
@@ -18440,7 +18455,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>costs.transformer_mass_cost_coeff</t>
+          <t>costs.converter_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -18463,7 +18478,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>costs.hvac_mass_cost_coeff</t>
+          <t>costs.transformer_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -18478,7 +18493,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>[124.]</t>
+          <t>[18.8]</t>
         </is>
       </c>
       <c r="E698" t="inlineStr"/>
@@ -18486,7 +18501,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>costs.cover_mass_cost_coeff</t>
+          <t>costs.hvac_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -18501,7 +18516,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>[5.7]</t>
+          <t>[124.]</t>
         </is>
       </c>
       <c r="E699" t="inlineStr"/>
@@ -18509,7 +18524,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>costs.elec_connec_machine_rating_cost_coeff</t>
+          <t>costs.cover_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -18519,12 +18534,12 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>[41.85]</t>
+          <t>[5.7]</t>
         </is>
       </c>
       <c r="E700" t="inlineStr"/>
@@ -18532,7 +18547,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>costs.platforms_mass_cost_coeff</t>
+          <t>costs.elec_connec_machine_rating_cost_coeff</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -18542,12 +18557,12 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>[17.1]</t>
+          <t>[41.85]</t>
         </is>
       </c>
       <c r="E701" t="inlineStr"/>
@@ -18555,7 +18570,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>costs.tower_mass_cost_coeff</t>
+          <t>costs.platforms_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -18570,7 +18585,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>[2.82980898]</t>
+          <t>[17.1]</t>
         </is>
       </c>
       <c r="E702" t="inlineStr"/>
@@ -18578,7 +18593,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>costs.controls_machine_rating_cost_coeff</t>
+          <t>costs.tower_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18588,12 +18603,12 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>[21.15]</t>
+          <t>[2.81245332]</t>
         </is>
       </c>
       <c r="E703" t="inlineStr"/>
@@ -18601,7 +18616,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>costs.crane_cost</t>
+          <t>costs.controls_machine_rating_cost_coeff</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18611,12 +18626,12 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>[12000.]</t>
+          <t>[21.15]</t>
         </is>
       </c>
       <c r="E704" t="inlineStr"/>
@@ -18624,7 +18639,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>costs.electricity_price</t>
+          <t>costs.crane_cost</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18634,12 +18649,12 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>USD/kW/h</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>[0.04]</t>
+          <t>[12000.]</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
@@ -18647,7 +18662,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>costs.reserve_margin_price</t>
+          <t>costs.electricity_price</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18657,12 +18672,12 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>USD/kW/year</t>
+          <t>USD/kW/h</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>[120.]</t>
+          <t>[0.04]</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -18670,7 +18685,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>costs.capacity_credit</t>
+          <t>costs.reserve_margin_price</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18678,10 +18693,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C707" t="inlineStr"/>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>USD/kW/year</t>
+        </is>
+      </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[120.]</t>
         </is>
       </c>
       <c r="E707" t="inlineStr"/>
@@ -18689,7 +18708,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>costs.benchmark_price</t>
+          <t>costs.capacity_credit</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18697,14 +18716,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>USD/kW/h</t>
-        </is>
-      </c>
+      <c r="C708" t="inlineStr"/>
       <c r="D708" t="inlineStr">
         <is>
-          <t>[0.071]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E708" t="inlineStr"/>
@@ -18712,7 +18727,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>costs.turbine_number</t>
+          <t>costs.benchmark_price</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18722,22 +18737,20 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D709" t="n">
-        <v>40</v>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>Number of turbines at plant</t>
-        </is>
-      </c>
+          <t>USD/kW/h</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>[0.071]</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>env.rho_air</t>
+          <t>costs.turbine_number</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18747,24 +18760,22 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>[1.225]</t>
-        </is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>40</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>Density of air</t>
+          <t>Number of turbines at plant</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>env.mu_air</t>
+          <t>env.rho_air</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18774,24 +18785,24 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>kg/m/s</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>[1.81e-05]</t>
+          <t>[1.225]</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>Dynamic viscosity of air</t>
+          <t>Density of air</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>env.shear_exp</t>
+          <t>env.mu_air</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18799,22 +18810,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C712" t="inlineStr"/>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>kg/m/s</t>
+        </is>
+      </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>[0.12]</t>
+          <t>[1.81e-05]</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>Shear exponent of the wind.</t>
+          <t>Dynamic viscosity of air</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>env.speed_sound_air</t>
+          <t>env.shear_exp</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18822,26 +18837,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>m/s</t>
-        </is>
-      </c>
+      <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[340.]</t>
+          <t>[0.12]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>Speed of sound in air.</t>
+          <t>Shear exponent of the wind.</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>env.weibull_k</t>
+          <t>env.speed_sound_air</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18849,22 +18860,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C714" t="inlineStr"/>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
+      </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>[2.]</t>
+          <t>[340.]</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>Shape parameter of the Weibull probability density function of the wind.</t>
+          <t>Speed of sound in air.</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>env.rho_water</t>
+          <t>env.weibull_k</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18872,26 +18887,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
+      <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
-          <t>[1025.]</t>
+          <t>[2.]</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>Density of ocean water</t>
+          <t>Shape parameter of the Weibull probability density function of the wind.</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>env.mu_water</t>
+          <t>env.rho_water</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18901,24 +18912,24 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>kg/m/s</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>[0.0013351]</t>
+          <t>[1025.]</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>Dynamic viscosity of ocean water</t>
+          <t>Density of ocean water</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>env.water_depth</t>
+          <t>env.mu_water</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18928,24 +18939,24 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg/m/s</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>[20.]</t>
+          <t>[0.0013351]</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Water depth for analysis.  Values &gt; 0 mean offshore</t>
+          <t>Dynamic viscosity of ocean water</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>env.Hsig_wave</t>
+          <t>env.water_depth</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18960,19 +18971,19 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>[4.52]</t>
+          <t>[20.]</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>Significant wave height</t>
+          <t>Water depth for analysis.  Values &gt; 0 mean offshore</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>env.Tsig_wave</t>
+          <t>env.Hsig_wave</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18982,24 +18993,24 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>[9.45]</t>
+          <t>[4.52]</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>Significant wave period</t>
+          <t>Significant wave height</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>env.G_soil</t>
+          <t>env.Tsig_wave</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -19009,24 +19020,24 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>N/m**2</t>
+          <t>s</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>[1.4e+08]</t>
+          <t>[9.45]</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>Shear stress of soil</t>
+          <t>Significant wave period</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>env.nu_soil</t>
+          <t>env.G_soil</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -19034,35 +19045,62 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C721" t="inlineStr"/>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>N/m**2</t>
+        </is>
+      </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[0.4]</t>
+          <t>[1.4e+08]</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>Poisson ratio of soil</t>
+          <t>Shear stress of soil</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
+          <t>env.nu_soil</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>[0.4]</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>Poisson ratio of soil</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
           <t>high_level_tower_props.tower_ref_axis</t>
         </is>
       </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr">
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D722" t="inlineStr">
+      <c r="D723" t="inlineStr">
         <is>
           <t>[[  0.     0.    15.  ]
  [  0.     0.    53.36]
@@ -19071,132 +19109,132 @@
  [  0.     0.   162.96]]</t>
         </is>
       </c>
-      <c r="E722" t="inlineStr">
+      <c r="E723" t="inlineStr">
         <is>
           <t>2D array of the coordinates (x,y,z) of the tower reference axis. The coordinate system is the global coordinate system of OpenFAST: it is placed at tower base with x pointing downwind, y pointing on the side and z pointing vertically upwards. A standard tower configuration will have zero x and y values and positive z values.</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>high_level_tower_props.hub_height</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D723" t="inlineStr">
-        <is>
-          <t>[162.96]</t>
-        </is>
-      </c>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>Height of the hub in the global reference system, i.e. distance rotor center to ground.</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
+          <t>high_level_tower_props.hub_height</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>[162.96]</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Height of the hub in the global reference system, i.e. distance rotor center to ground.</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
           <t>materials.ply_t</t>
         </is>
       </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr">
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D724" t="inlineStr">
+      <c r="D725" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.005      0.00515873
  0.001      0.001      0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E724" t="inlineStr">
+      <c r="E725" t="inlineStr">
         <is>
           <t>1D array of the ply thicknesses of the materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
+    <row r="726">
+      <c r="A726" t="inlineStr">
         <is>
           <t>materials.fvf</t>
         </is>
       </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr">
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.57       0.10769231
  0.57       0.57       0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E725" t="inlineStr">
+      <c r="E726" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional fiber volume fraction of the composite materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
+    <row r="727">
+      <c r="A727" t="inlineStr">
         <is>
           <t>materials.fwf</t>
         </is>
       </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr">
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.74506827 0.15889029
  0.74506827 0.74506827 0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E726" t="inlineStr">
+      <c r="E727" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional fiber weight- fraction of the composite materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
+    <row r="728">
+      <c r="A728" t="inlineStr">
         <is>
           <t>materials.E</t>
         </is>
       </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr">
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D727" t="inlineStr">
+      <c r="D728" t="inlineStr">
         <is>
           <t>[[3.440e+09 3.440e+09 3.440e+09]
  [2.000e+11 2.000e+11 2.000e+11]
@@ -19211,29 +19249,29 @@
  [4.560e+06 4.560e+06 4.560e+06]]</t>
         </is>
       </c>
-      <c r="E727" t="inlineStr">
+      <c r="E728" t="inlineStr">
         <is>
           <t>2D array of the Youngs moduli of the materials. Each row represents a material, the three columns represent E11, E22 and E33.</t>
         </is>
       </c>
     </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
+    <row r="729">
+      <c r="A729" t="inlineStr">
         <is>
           <t>materials.G</t>
         </is>
       </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D728" t="inlineStr">
+      <c r="D729" t="inlineStr">
         <is>
           <t>[[1.32300000e+09 1.32300000e+09 1.32300000e+09]
  [7.93000000e+10 7.93000000e+10 7.93000000e+10]
@@ -19248,25 +19286,25 @@
  [1.52000000e+06 1.52000000e+06 1.52000000e+06]]</t>
         </is>
       </c>
-      <c r="E728" t="inlineStr">
+      <c r="E729" t="inlineStr">
         <is>
           <t>2D array of the shear moduli of the materials. Each row represents a material, the three columns represent G12, G13 and G23.</t>
         </is>
       </c>
     </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
+    <row r="730">
+      <c r="A730" t="inlineStr">
         <is>
           <t>materials.nu</t>
         </is>
       </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr">
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr">
         <is>
           <t>[[0.3   0.3   0.3  ]
  [0.3   0.3   0.3  ]
@@ -19281,29 +19319,29 @@
  [0.49  0.49  0.49 ]]</t>
         </is>
       </c>
-      <c r="E729" t="inlineStr">
+      <c r="E730" t="inlineStr">
         <is>
           <t>2D array of the Poisson ratio of the materials. Each row represents a material, the three columns represent nu12, nu13 and nu23.</t>
         </is>
       </c>
     </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
+    <row r="731">
+      <c r="A731" t="inlineStr">
         <is>
           <t>materials.Xt</t>
         </is>
       </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr">
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D730" t="inlineStr">
+      <c r="D731" t="inlineStr">
         <is>
           <t>[[7.400e+01 7.400e+01 7.400e+01]
  [4.500e+08 4.500e+08 4.500e+08]
@@ -19318,29 +19356,29 @@
  [6.900e+05 6.900e+05 6.900e+05]]</t>
         </is>
       </c>
-      <c r="E730" t="inlineStr">
+      <c r="E731" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Tensile Strength (UTS) of the materials. Each row represents a material, the three columns represent Xt12, Xt13 and Xt23.</t>
         </is>
       </c>
     </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
+    <row r="732">
+      <c r="A732" t="inlineStr">
         <is>
           <t>materials.Xc</t>
         </is>
       </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr">
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D731" t="inlineStr">
+      <c r="D732" t="inlineStr">
         <is>
           <t>[[8.7000e+01 8.7000e+01 8.7000e+01]
  [4.5000e+08 4.5000e+08 4.5000e+08]
@@ -19355,29 +19393,29 @@
  [4.0000e+05 4.0000e+05 4.0000e+05]]</t>
         </is>
       </c>
-      <c r="E731" t="inlineStr">
+      <c r="E732" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Compressive Strength (UCS) of the materials. Each row represents a material, the three columns represent Xc12, Xc13 and Xc23.</t>
         </is>
       </c>
     </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
+    <row r="733">
+      <c r="A733" t="inlineStr">
         <is>
           <t>materials.S</t>
         </is>
       </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr">
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D732" t="inlineStr">
+      <c r="D733" t="inlineStr">
         <is>
           <t>[[2.126e+07 2.126e+07 2.126e+07]
  [0.000e+00 0.000e+00 0.000e+00]
@@ -19392,67 +19430,44 @@
  [3.100e+05 3.100e+05 3.100e+05]]</t>
         </is>
       </c>
-      <c r="E732" t="inlineStr">
+      <c r="E733" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Shear Strength (USS) of the materials. Each row represents a material, the three columns represent S12, S13 and S23.</t>
         </is>
       </c>
     </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
+    <row r="734">
+      <c r="A734" t="inlineStr">
         <is>
           <t>materials.sigma_y</t>
         </is>
       </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr">
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D733" t="inlineStr">
+      <c r="D734" t="inlineStr">
         <is>
           <t>[0.00e+00 3.45e+08 4.85e+08 2.65e+08 0.00e+00 0.00e+00 0.00e+00 0.00e+00
  0.00e+00 0.00e+00 0.00e+00]</t>
         </is>
       </c>
-      <c r="E733" t="inlineStr">
+      <c r="E734" t="inlineStr">
         <is>
           <t>Yield stress of the material (in the principle direction for composites).</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>materials.wohler_exp</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr">
-        <is>
-          <t>[ 1.   3.   3.   3.  10.  16.1 10.  10.   1.   1.   1. ]</t>
-        </is>
-      </c>
-      <c r="E734" t="inlineStr">
-        <is>
-          <t>Exponent of S-N Wohler fatigue curve in the form of S = A*N^-(1/m).</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>materials.wohler_intercept</t>
+          <t>materials.wohler_exp</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -19462,49 +19477,45 @@
       </c>
       <c r="C735" t="inlineStr"/>
       <c r="D735" t="inlineStr">
+        <is>
+          <t>[ 1.   3.   3.   3.  10.  16.1 10.  10.   1.   1.   1. ]</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Exponent of S-N Wohler fatigue curve in the form of S = A*N^-(1/m).</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>materials.wohler_intercept</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr">
         <is>
           <t>[8.70000000e+01 3.55346484e+10 3.55346484e+10 3.55346484e+10
  6.09200000e+08 1.54600000e+09 1.13200000e+08 4.48900000e+08
  2.08300000e+06 0.00000000e+00 6.90000000e+05]</t>
         </is>
       </c>
-      <c r="E735" t="inlineStr">
+      <c r="E736" t="inlineStr">
         <is>
           <t>Stress-intercept (A) of S-N Wohler fatigue curve in the form of S = A*N^-(1/m), taken as ultimate stress unless otherwise specified.</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>materials.unit_cost</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C736" t="inlineStr">
-        <is>
-          <t>USD/kg</t>
-        </is>
-      </c>
-      <c r="D736" t="inlineStr">
-        <is>
-          <t>[ 7.23  0.7   0.9   0.5   1.87 30.    3.    2.86 13.    3.63  9.  ]</t>
-        </is>
-      </c>
-      <c r="E736" t="inlineStr">
-        <is>
-          <t>1D array of the unit costs of the materials.</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>materials.waste</t>
+          <t>materials.unit_cost</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -19512,77 +19523,77 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C737" t="inlineStr"/>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>USD/kg</t>
+        </is>
+      </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>[0.25 0.   0.   0.   0.05 0.05 0.15 0.15 0.2  0.   0.  ]</t>
+          <t>[ 7.23  0.7   0.9   0.5   1.87 30.    3.    2.86 13.    3.63  9.  ]</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>1D array of the non-dimensional waste fraction of the materials.</t>
+          <t>1D array of the unit costs of the materials.</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
+          <t>materials.waste</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>[0.25 0.   0.   0.   0.05 0.05 0.15 0.15 0.2  0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>1D array of the non-dimensional waste fraction of the materials.</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
           <t>materials.roll_mass</t>
         </is>
       </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr">
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="D738" t="inlineStr">
+      <c r="D739" t="inlineStr">
         <is>
           <t>[  0.       0.       0.       0.       0.       0.     181.4368 181.4368
    0.       0.       0.    ]</t>
         </is>
       </c>
-      <c r="E738" t="inlineStr">
+      <c r="E739" t="inlineStr">
         <is>
           <t>1D array of the roll mass of the composite fabrics. Non-composite materials are kept at 0.</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>materials.orth</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>[0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="E739" t="inlineStr">
-        <is>
-          <t>1D array of flags to set whether a material is isotropic (0) or orthtropic (1). Each entry represents a material.</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>monopile.s</t>
+          <t>materials.orth</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -19590,22 +19601,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C740" t="inlineStr"/>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>[0.     0.5625 0.625  0.6875 0.8125 0.9375 1.    ]</t>
+          <t>[0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
+          <t>1D array of flags to set whether a material is isotropic (0) or orthtropic (1). Each entry represents a material.</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>monopile.height</t>
+          <t>monopile.s</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -19613,26 +19628,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C741" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="C741" t="inlineStr"/>
       <c r="D741" t="inlineStr">
         <is>
-          <t>[80.]</t>
+          <t>[0.     0.5625 0.625  0.6875 0.8125 0.9375 1.    ]</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>Scalar of the tower height computed along the z axis.</t>
+          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>monopile.length</t>
+          <t>monopile.height</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -19652,14 +19663,14 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>monopile.foundation_height</t>
+          <t>monopile.length</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19674,19 +19685,19 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>[-65.]</t>
+          <t>[80.]</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>Foundation height in respect to the ground level.</t>
+          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>monopile.diameter</t>
+          <t>monopile.foundation_height</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19701,19 +19712,19 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 8. 8. 8. 8.]</t>
+          <t>[-65.]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>1D array of the outer diameter values defined along the tower axis.</t>
+          <t>Foundation height in respect to the ground level.</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>monopile.layer_thickness</t>
+          <t>monopile.diameter</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19728,19 +19739,20 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
+          <t>[8.26217155 8.26217155 8.26217155 8.26217155 8.26217155 8.26217155
+ 8.26217155]</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
+          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>monopile.outfitting_factor</t>
+          <t>monopile.layer_thickness</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19748,22 +19760,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C746" t="inlineStr"/>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[1.07]</t>
+          <t>[[0.075 0.075 0.075 0.075 0.075 0.075 0.075]]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
+          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>monopile.transition_piece_mass</t>
+          <t>monopile.outfitting_factor</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19771,26 +19787,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
+      <c r="C747" t="inlineStr"/>
       <c r="D747" t="inlineStr">
         <is>
-          <t>[100000.]</t>
+          <t>[1.07]</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>point mass of transition piece</t>
+          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>monopile.transition_piece_cost</t>
+          <t>monopile.transition_piece_mass</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19800,24 +19812,24 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[500000.]</t>
+          <t>[100000.]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>cost of transition piece</t>
+          <t>point mass of transition piece</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>monopile.gravity_foundation_mass</t>
+          <t>monopile.transition_piece_cost</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19827,24 +19839,24 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[500000.]</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>extra mass of gravity foundation</t>
+          <t>cost of transition piece</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>monopile.layer_name</t>
+          <t>monopile.gravity_foundation_mass</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19854,24 +19866,24 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>['monopile_wall']</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>1D array of the names of the layers modeled in the tower structure.</t>
+          <t>extra mass of gravity foundation</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>monopile.layer_mat</t>
+          <t>monopile.layer_name</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19886,32 +19898,59 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>['monopile_wall']</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+          <t>1D array of the names of the layers modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
+          <t>monopile.layer_mat</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>['steel']</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
           <t>tower.ref_axis</t>
         </is>
       </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr">
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D752" t="inlineStr">
+      <c r="D753" t="inlineStr">
         <is>
           <t>[[  0.   0.  15.]
  [  0.   0.  50.]
@@ -19920,43 +19959,16 @@
  [  0.   0. 150.]]</t>
         </is>
       </c>
-      <c r="E752" t="inlineStr">
+      <c r="E753" t="inlineStr">
         <is>
           <t>2D array of the coordinates (x,y,z) of the tower reference axis. The coordinate system is the global coordinate system of OpenFAST: it is placed at tower base with x pointing downwind, y pointing on the side and z pointing vertically upwards. A standard tower configuration will have zero x and y values and positive z values.</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>tower.diameter</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C753" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>[8. 8. 8. 6. 6.]</t>
-        </is>
-      </c>
-      <c r="E753" t="inlineStr">
-        <is>
-          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>tower.cd</t>
+          <t>tower.diameter</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19964,22 +19976,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C754" t="inlineStr"/>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>[0.5 0.5 0.5 0.5 0.5]</t>
+          <t>[8.26217155 8.26217155 8.26217155 6.         6.        ]</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>1D array of the drag coefficients defined along the tower height.</t>
+          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>tower.layer_thickness</t>
+          <t>tower.cd</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19987,26 +20003,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C755" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="C755" t="inlineStr"/>
       <c r="D755" t="inlineStr">
         <is>
-          <t>[[0.04531985 0.025      0.025      0.025      0.025     ]]</t>
+          <t>[0.5 0.5 0.5 0.5 0.5]</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
+          <t>1D array of the drag coefficients defined along the tower height.</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>tower.outfitting_factor</t>
+          <t>tower.layer_thickness</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -20014,22 +20026,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C756" t="inlineStr"/>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>[1.07]</t>
+          <t>[[0.0366826 0.02      0.02      0.02      0.02     ]]</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
+          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>tower.layer_name</t>
+          <t>tower.outfitting_factor</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -20037,26 +20053,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C757" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
+      <c r="C757" t="inlineStr"/>
       <c r="D757" t="inlineStr">
         <is>
-          <t>['tower_wall']</t>
+          <t>[1.07]</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>1D array of the names of the layers modeled in the tower structure.</t>
+          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>tower.layer_mat</t>
+          <t>tower.layer_name</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -20071,19 +20083,19 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>['tower_wall']</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+          <t>1D array of the names of the layers modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>tower_grid.s</t>
+          <t>tower.layer_mat</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -20091,22 +20103,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C759" t="inlineStr"/>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
+          <t>['steel']</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
+          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>tower_grid.height</t>
+          <t>tower_grid.s</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -20114,26 +20130,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C760" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="C760" t="inlineStr"/>
       <c r="D760" t="inlineStr">
         <is>
-          <t>[147.96]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>Scalar of the tower height computed along the z axis.</t>
+          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>tower_grid.length</t>
+          <t>tower_grid.height</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -20153,32 +20165,59 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
+          <t>tower_grid.length</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>[147.96]</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
           <t>tower_grid.foundation_height</t>
         </is>
       </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr">
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D762" t="inlineStr">
+      <c r="D763" t="inlineStr">
         <is>
           <t>[15.]</t>
         </is>
       </c>
-      <c r="E762" t="inlineStr">
+      <c r="E763" t="inlineStr">
         <is>
           <t>Foundation height in respect to the ground level.</t>
         </is>
